--- a/abc.xlsx
+++ b/abc.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E25"/>
+  <dimension ref="A2:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,7 +894,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45913.44874021001</v>
+        <v>45913.44874020833</v>
       </c>
       <c r="B24" t="n">
         <v>660</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45913.44894585371</v>
+        <v>45913.44894585648</v>
       </c>
       <c r="B25" t="n">
         <v>264</v>
@@ -931,6 +931,69 @@
       <c r="E25" t="inlineStr">
         <is>
           <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>45913.51416148148</v>
+      </c>
+      <c r="B26" t="n">
+        <v>660</v>
+      </c>
+      <c r="C26" t="n">
+        <v>264</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>45913.51624533565</v>
+      </c>
+      <c r="B27" t="n">
+        <v>660</v>
+      </c>
+      <c r="C27" t="n">
+        <v>264</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>45913.52546561449</v>
+      </c>
+      <c r="B28" t="n">
+        <v>660</v>
+      </c>
+      <c r="C28" t="n">
+        <v>264</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
         </is>
       </c>
     </row>

--- a/abc.xlsx
+++ b/abc.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E28"/>
+  <dimension ref="A2:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -978,7 +978,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45913.52546561449</v>
+        <v>45913.52546561343</v>
       </c>
       <c r="B28" t="n">
         <v>660</v>
@@ -992,6 +992,357 @@
         </is>
       </c>
       <c r="E28" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>45913.65604733796</v>
+      </c>
+      <c r="B29" t="n">
+        <v>660</v>
+      </c>
+      <c r="C29" t="n">
+        <v>264</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>45913.66944803241</v>
+      </c>
+      <c r="B30" t="n">
+        <v>660</v>
+      </c>
+      <c r="C30" t="n">
+        <v>264</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>45913.88844443287</v>
+      </c>
+      <c r="B31" t="n">
+        <v>660</v>
+      </c>
+      <c r="C31" t="n">
+        <v>264</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>45913.88906653935</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0:15</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Hold the load at 450.0 MW/ Giữ tải tại 450.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>45913.89797984953</v>
+      </c>
+      <c r="B33" t="n">
+        <v>660</v>
+      </c>
+      <c r="C33" t="n">
+        <v>264</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>45913.89990114584</v>
+      </c>
+      <c r="B34" t="n">
+        <v>660</v>
+      </c>
+      <c r="C34" t="n">
+        <v>264</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>45913.90041446759</v>
+      </c>
+      <c r="B35" t="n">
+        <v>660</v>
+      </c>
+      <c r="C35" t="n">
+        <v>264</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>45913.90228199074</v>
+      </c>
+      <c r="B36" t="n">
+        <v>660</v>
+      </c>
+      <c r="C36" t="n">
+        <v>264</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>45913.90849672454</v>
+      </c>
+      <c r="B37" t="n">
+        <v>660</v>
+      </c>
+      <c r="C37" t="n">
+        <v>264</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>45913.9101290203</v>
+      </c>
+      <c r="B38" t="n">
+        <v>264</v>
+      </c>
+      <c r="C38" t="n">
+        <v>660</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>45913.91039145063</v>
+      </c>
+      <c r="B39" t="n">
+        <v>264</v>
+      </c>
+      <c r="C39" t="n">
+        <v>660</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>45913.9106208444</v>
+      </c>
+      <c r="B40" t="n">
+        <v>660</v>
+      </c>
+      <c r="C40" t="n">
+        <v>264</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45913.9113326705</v>
+      </c>
+      <c r="B41" t="n">
+        <v>660</v>
+      </c>
+      <c r="C41" t="n">
+        <v>264</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45913.91175178665</v>
+      </c>
+      <c r="B42" t="n">
+        <v>660</v>
+      </c>
+      <c r="C42" t="n">
+        <v>264</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45913.91236648113</v>
+      </c>
+      <c r="B43" t="n">
+        <v>660</v>
+      </c>
+      <c r="C43" t="n">
+        <v>264</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45913.91350438834</v>
+      </c>
+      <c r="B44" t="n">
+        <v>660</v>
+      </c>
+      <c r="C44" t="n">
+        <v>264</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45913.91387810817</v>
+      </c>
+      <c r="B45" t="n">
+        <v>660</v>
+      </c>
+      <c r="C45" t="n">
+        <v>264</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
         </is>

--- a/abc.xlsx
+++ b/abc.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E45"/>
+  <dimension ref="A2:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45913.9101290203</v>
+        <v>45913.91012901621</v>
       </c>
       <c r="B38" t="n">
         <v>264</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45913.91039145063</v>
+        <v>45913.91039144676</v>
       </c>
       <c r="B39" t="n">
         <v>264</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45913.9106208444</v>
+        <v>45913.91062084491</v>
       </c>
       <c r="B40" t="n">
         <v>660</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45913.9113326705</v>
+        <v>45913.91133267361</v>
       </c>
       <c r="B41" t="n">
         <v>660</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45913.91175178665</v>
+        <v>45913.91175178241</v>
       </c>
       <c r="B42" t="n">
         <v>660</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45913.91236648113</v>
+        <v>45913.91236648148</v>
       </c>
       <c r="B43" t="n">
         <v>660</v>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45913.91350438834</v>
+        <v>45913.91350438658</v>
       </c>
       <c r="B44" t="n">
         <v>660</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45913.91387810817</v>
+        <v>45913.91387811342</v>
       </c>
       <c r="B45" t="n">
         <v>660</v>
@@ -1343,6 +1343,69 @@
         </is>
       </c>
       <c r="E45" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45913.91664212963</v>
+      </c>
+      <c r="B46" t="n">
+        <v>660</v>
+      </c>
+      <c r="C46" t="n">
+        <v>264</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45913.92082518519</v>
+      </c>
+      <c r="B47" t="n">
+        <v>660</v>
+      </c>
+      <c r="C47" t="n">
+        <v>264</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45913.921534596</v>
+      </c>
+      <c r="B48" t="n">
+        <v>660</v>
+      </c>
+      <c r="C48" t="n">
+        <v>264</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
         </is>

--- a/abc.xlsx
+++ b/abc.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E48"/>
+  <dimension ref="A2:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45913.921534596</v>
+        <v>45913.92153459491</v>
       </c>
       <c r="B48" t="n">
         <v>660</v>
@@ -1406,6 +1406,90 @@
         </is>
       </c>
       <c r="E48" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45914.3330212963</v>
+      </c>
+      <c r="B49" t="n">
+        <v>660</v>
+      </c>
+      <c r="C49" t="n">
+        <v>264</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>45914.34451471065</v>
+      </c>
+      <c r="B50" t="n">
+        <v>660</v>
+      </c>
+      <c r="C50" t="n">
+        <v>264</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>45914.34880066659</v>
+      </c>
+      <c r="B51" t="n">
+        <v>660</v>
+      </c>
+      <c r="C51" t="n">
+        <v>462</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 462.0 MW/Giảm tải xuống 462.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>45914.34907038009</v>
+      </c>
+      <c r="B52" t="n">
+        <v>660</v>
+      </c>
+      <c r="C52" t="n">
+        <v>264</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
         </is>

--- a/abc.xlsx
+++ b/abc.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E811"/>
+  <dimension ref="A2:E854"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11325,7 +11325,7 @@
     </row>
     <row r="719">
       <c r="A719" s="1" t="n">
-        <v>45914.49244710076</v>
+        <v>45914.49244710648</v>
       </c>
       <c r="B719" t="n">
         <v>264</v>
@@ -11346,7 +11346,7 @@
     </row>
     <row r="720">
       <c r="A720" s="1" t="n">
-        <v>45914.49260667551</v>
+        <v>45914.49260667824</v>
       </c>
       <c r="B720" t="n">
         <v>264</v>
@@ -11652,7 +11652,7 @@
     </row>
     <row r="740">
       <c r="A740" s="1" t="n">
-        <v>45914.49333404485</v>
+        <v>45914.49333403935</v>
       </c>
       <c r="B740" t="n">
         <v>264</v>
@@ -11943,7 +11943,7 @@
     </row>
     <row r="759">
       <c r="A759" s="1" t="n">
-        <v>45914.49444172283</v>
+        <v>45914.49444172454</v>
       </c>
       <c r="B759" t="n">
         <v>660</v>
@@ -12174,7 +12174,7 @@
     </row>
     <row r="774">
       <c r="A774" s="1" t="n">
-        <v>45914.4958113414</v>
+        <v>45914.49581134259</v>
       </c>
       <c r="B774" t="n">
         <v>660</v>
@@ -12465,7 +12465,7 @@
     </row>
     <row r="793">
       <c r="A793" s="1" t="n">
-        <v>45914.49678841136</v>
+        <v>45914.49678841436</v>
       </c>
       <c r="B793" t="n">
         <v>264</v>
@@ -12749,6 +12749,681 @@
         <v>264</v>
       </c>
       <c r="C811" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>45914.5060709375</v>
+      </c>
+      <c r="B812" t="n">
+        <v>264</v>
+      </c>
+      <c r="C812" t="n">
+        <v>660</v>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>12:08</t>
+        </is>
+      </c>
+      <c r="E812" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>45914.50642701389</v>
+      </c>
+      <c r="B813" t="n">
+        <v>264</v>
+      </c>
+      <c r="C813" t="n">
+        <v>660</v>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="E813" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>45914.50908366948</v>
+      </c>
+      <c r="B814" t="n">
+        <v>264</v>
+      </c>
+      <c r="C814" t="n">
+        <v>660</v>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>23:12</t>
+        </is>
+      </c>
+      <c r="E814" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>45914.50930866507</v>
+      </c>
+      <c r="B815" t="n">
+        <v>264</v>
+      </c>
+      <c r="C815" t="n">
+        <v>600</v>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>12:13</t>
+        </is>
+      </c>
+      <c r="E815" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 600.0 MW/Tăng tải lên 600.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>2025-09-14 12:46:00</t>
+        </is>
+      </c>
+      <c r="B816" t="n">
+        <v>429</v>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>2025-09-14 12:47:00</t>
+        </is>
+      </c>
+      <c r="B817" t="n">
+        <v>442.2</v>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>2025-09-14 12:48:00</t>
+        </is>
+      </c>
+      <c r="B818" t="n">
+        <v>455.4</v>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>2025-09-14 12:49:00</t>
+        </is>
+      </c>
+      <c r="B819" t="n">
+        <v>468.6</v>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>2025-09-14 12:50:00</t>
+        </is>
+      </c>
+      <c r="B820" t="n">
+        <v>481.8</v>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>2025-09-14 12:51:00</t>
+        </is>
+      </c>
+      <c r="B821" t="n">
+        <v>494.9999999999999</v>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>2025-09-14 12:52:00</t>
+        </is>
+      </c>
+      <c r="B822" t="n">
+        <v>508.1999999999999</v>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>2025-09-14 12:53:00</t>
+        </is>
+      </c>
+      <c r="B823" t="n">
+        <v>521.4</v>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>2025-09-14 12:54:00</t>
+        </is>
+      </c>
+      <c r="B824" t="n">
+        <v>534.6</v>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>2025-09-14 12:55:00</t>
+        </is>
+      </c>
+      <c r="B825" t="n">
+        <v>547.8000000000001</v>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>2025-09-14 12:56:00</t>
+        </is>
+      </c>
+      <c r="B826" t="n">
+        <v>561.0000000000001</v>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>2025-09-14 12:57:00</t>
+        </is>
+      </c>
+      <c r="B827" t="n">
+        <v>574.2000000000002</v>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>2025-09-14 12:58:00</t>
+        </is>
+      </c>
+      <c r="B828" t="n">
+        <v>587.4000000000002</v>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>2025-09-14 12:59:00</t>
+        </is>
+      </c>
+      <c r="B829" t="n">
+        <v>600.6000000000003</v>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:00:00</t>
+        </is>
+      </c>
+      <c r="B830" t="n">
+        <v>613.8000000000003</v>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:01:00</t>
+        </is>
+      </c>
+      <c r="B831" t="n">
+        <v>627.0000000000003</v>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:02:00</t>
+        </is>
+      </c>
+      <c r="B832" t="n">
+        <v>640.2000000000004</v>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:03:00</t>
+        </is>
+      </c>
+      <c r="B833" t="n">
+        <v>653.4000000000004</v>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:04:00</t>
+        </is>
+      </c>
+      <c r="B834" t="n">
+        <v>660</v>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>45914.50971411171</v>
+      </c>
+      <c r="B835" t="n">
+        <v>264</v>
+      </c>
+      <c r="C835" t="n">
+        <v>600</v>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>23:13</t>
+        </is>
+      </c>
+      <c r="E835" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 600.0 MW/Tăng tải lên 600.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>2025-09-14 23:46:00</t>
+        </is>
+      </c>
+      <c r="B836" t="n">
+        <v>429</v>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>2025-09-14 23:47:00</t>
+        </is>
+      </c>
+      <c r="B837" t="n">
+        <v>442.2</v>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>2025-09-14 23:48:00</t>
+        </is>
+      </c>
+      <c r="B838" t="n">
+        <v>455.4</v>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>2025-09-14 23:49:00</t>
+        </is>
+      </c>
+      <c r="B839" t="n">
+        <v>468.6</v>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>2025-09-14 23:50:00</t>
+        </is>
+      </c>
+      <c r="B840" t="n">
+        <v>481.8</v>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>2025-09-14 23:51:00</t>
+        </is>
+      </c>
+      <c r="B841" t="n">
+        <v>494.9999999999999</v>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>2025-09-14 23:52:00</t>
+        </is>
+      </c>
+      <c r="B842" t="n">
+        <v>508.1999999999999</v>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>2025-09-14 23:53:00</t>
+        </is>
+      </c>
+      <c r="B843" t="n">
+        <v>521.4</v>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>2025-09-14 23:54:00</t>
+        </is>
+      </c>
+      <c r="B844" t="n">
+        <v>534.6</v>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>2025-09-14 23:55:00</t>
+        </is>
+      </c>
+      <c r="B845" t="n">
+        <v>547.8000000000001</v>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>2025-09-14 23:56:00</t>
+        </is>
+      </c>
+      <c r="B846" t="n">
+        <v>561.0000000000001</v>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>2025-09-14 23:57:00</t>
+        </is>
+      </c>
+      <c r="B847" t="n">
+        <v>574.2000000000002</v>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>2025-09-14 23:58:00</t>
+        </is>
+      </c>
+      <c r="B848" t="n">
+        <v>587.4000000000002</v>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>2025-09-14 23:59:00</t>
+        </is>
+      </c>
+      <c r="B849" t="n">
+        <v>600.6000000000003</v>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>2025-09-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="B850" t="n">
+        <v>613.8000000000003</v>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>2025-09-15 00:01:00</t>
+        </is>
+      </c>
+      <c r="B851" t="n">
+        <v>627.0000000000003</v>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>2025-09-15 00:02:00</t>
+        </is>
+      </c>
+      <c r="B852" t="n">
+        <v>640.2000000000004</v>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>2025-09-15 00:03:00</t>
+        </is>
+      </c>
+      <c r="B853" t="n">
+        <v>653.4000000000004</v>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>2025-09-15 00:04:00</t>
+        </is>
+      </c>
+      <c r="B854" t="n">
+        <v>660</v>
+      </c>
+      <c r="C854" t="inlineStr">
         <is>
           <t>ramp</t>
         </is>

--- a/abc.xlsx
+++ b/abc.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E854"/>
+  <dimension ref="A2:E1144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12798,7 +12798,7 @@
     </row>
     <row r="814">
       <c r="A814" s="1" t="n">
-        <v>45914.50908366948</v>
+        <v>45914.50908366899</v>
       </c>
       <c r="B814" t="n">
         <v>264</v>
@@ -12819,7 +12819,7 @@
     </row>
     <row r="815">
       <c r="A815" s="1" t="n">
-        <v>45914.50930866507</v>
+        <v>45914.50930866898</v>
       </c>
       <c r="B815" t="n">
         <v>264</v>
@@ -13125,7 +13125,7 @@
     </row>
     <row r="835">
       <c r="A835" s="1" t="n">
-        <v>45914.50971411171</v>
+        <v>45914.5097141088</v>
       </c>
       <c r="B835" t="n">
         <v>264</v>
@@ -13424,6 +13424,4464 @@
         <v>660</v>
       </c>
       <c r="C854" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>45914.51505253472</v>
+      </c>
+      <c r="B855" t="n">
+        <v>264</v>
+      </c>
+      <c r="C855" t="n">
+        <v>660</v>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="E855" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
+        <v>45914.5152600463</v>
+      </c>
+      <c r="B856" t="n">
+        <v>264</v>
+      </c>
+      <c r="C856" t="n">
+        <v>660</v>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>23:10</t>
+        </is>
+      </c>
+      <c r="E856" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>45914.51542164352</v>
+      </c>
+      <c r="B857" t="n">
+        <v>264</v>
+      </c>
+      <c r="C857" t="n">
+        <v>660</v>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="E857" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>2025-09-15 00:18:00</t>
+        </is>
+      </c>
+      <c r="B858" t="n">
+        <v>429</v>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>2025-09-15 00:19:00</t>
+        </is>
+      </c>
+      <c r="B859" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>2025-09-15 00:20:00</t>
+        </is>
+      </c>
+      <c r="B860" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>2025-09-15 00:21:00</t>
+        </is>
+      </c>
+      <c r="B861" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>2025-09-15 00:22:00</t>
+        </is>
+      </c>
+      <c r="B862" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>2025-09-15 00:23:00</t>
+        </is>
+      </c>
+      <c r="B863" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>2025-09-15 00:24:00</t>
+        </is>
+      </c>
+      <c r="B864" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>2025-09-15 00:25:00</t>
+        </is>
+      </c>
+      <c r="B865" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>2025-09-15 00:26:00</t>
+        </is>
+      </c>
+      <c r="B866" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>2025-09-15 00:27:00</t>
+        </is>
+      </c>
+      <c r="B867" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>2025-09-15 00:28:00</t>
+        </is>
+      </c>
+      <c r="B868" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>2025-09-15 00:29:00</t>
+        </is>
+      </c>
+      <c r="B869" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>2025-09-15 00:30:00</t>
+        </is>
+      </c>
+      <c r="B870" t="n">
+        <v>297</v>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>2025-09-15 00:31:00</t>
+        </is>
+      </c>
+      <c r="B871" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>2025-09-15 00:32:00</t>
+        </is>
+      </c>
+      <c r="B872" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>2025-09-15 00:33:00</t>
+        </is>
+      </c>
+      <c r="B873" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>2025-09-15 00:34:00</t>
+        </is>
+      </c>
+      <c r="B874" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>2025-09-15 00:35:00</t>
+        </is>
+      </c>
+      <c r="B875" t="n">
+        <v>264</v>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="1" t="n">
+        <v>45914.52121304398</v>
+      </c>
+      <c r="B876" t="n">
+        <v>264</v>
+      </c>
+      <c r="C876" t="n">
+        <v>600</v>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="E876" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 600.0 MW/Tăng tải lên 600.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:48:00</t>
+        </is>
+      </c>
+      <c r="B877" t="n">
+        <v>429</v>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:49:00</t>
+        </is>
+      </c>
+      <c r="B878" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:50:00</t>
+        </is>
+      </c>
+      <c r="B879" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:51:00</t>
+        </is>
+      </c>
+      <c r="B880" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:52:00</t>
+        </is>
+      </c>
+      <c r="B881" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:53:00</t>
+        </is>
+      </c>
+      <c r="B882" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:54:00</t>
+        </is>
+      </c>
+      <c r="B883" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:55:00</t>
+        </is>
+      </c>
+      <c r="B884" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:56:00</t>
+        </is>
+      </c>
+      <c r="B885" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:57:00</t>
+        </is>
+      </c>
+      <c r="B886" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:58:00</t>
+        </is>
+      </c>
+      <c r="B887" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:59:00</t>
+        </is>
+      </c>
+      <c r="B888" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:00:00</t>
+        </is>
+      </c>
+      <c r="B889" t="n">
+        <v>297</v>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:01:00</t>
+        </is>
+      </c>
+      <c r="B890" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:02:00</t>
+        </is>
+      </c>
+      <c r="B891" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:03:00</t>
+        </is>
+      </c>
+      <c r="B892" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:04:00</t>
+        </is>
+      </c>
+      <c r="B893" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:05:00</t>
+        </is>
+      </c>
+      <c r="B894" t="n">
+        <v>264</v>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="1" t="n">
+        <v>45914.52444666667</v>
+      </c>
+      <c r="B895" t="n">
+        <v>264</v>
+      </c>
+      <c r="C895" t="n">
+        <v>600</v>
+      </c>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>12:35</t>
+        </is>
+      </c>
+      <c r="E895" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 600.0 MW/Tăng tải lên 600.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:53:00</t>
+        </is>
+      </c>
+      <c r="B896" t="n">
+        <v>429</v>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:54:00</t>
+        </is>
+      </c>
+      <c r="B897" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:55:00</t>
+        </is>
+      </c>
+      <c r="B898" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:56:00</t>
+        </is>
+      </c>
+      <c r="B899" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:57:00</t>
+        </is>
+      </c>
+      <c r="B900" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:58:00</t>
+        </is>
+      </c>
+      <c r="B901" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:59:00</t>
+        </is>
+      </c>
+      <c r="B902" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:00:00</t>
+        </is>
+      </c>
+      <c r="B903" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:01:00</t>
+        </is>
+      </c>
+      <c r="B904" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:02:00</t>
+        </is>
+      </c>
+      <c r="B905" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:03:00</t>
+        </is>
+      </c>
+      <c r="B906" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:04:00</t>
+        </is>
+      </c>
+      <c r="B907" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:05:00</t>
+        </is>
+      </c>
+      <c r="B908" t="n">
+        <v>297</v>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:06:00</t>
+        </is>
+      </c>
+      <c r="B909" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:07:00</t>
+        </is>
+      </c>
+      <c r="B910" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:08:00</t>
+        </is>
+      </c>
+      <c r="B911" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:09:00</t>
+        </is>
+      </c>
+      <c r="B912" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:10:00</t>
+        </is>
+      </c>
+      <c r="B913" t="n">
+        <v>264</v>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="1" t="n">
+        <v>45914.53543868056</v>
+      </c>
+      <c r="B914" t="n">
+        <v>264</v>
+      </c>
+      <c r="C914" t="n">
+        <v>600</v>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>12:51</t>
+        </is>
+      </c>
+      <c r="E914" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 600.0 MW/Tăng tải lên 600.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:09:00</t>
+        </is>
+      </c>
+      <c r="B915" t="n">
+        <v>429</v>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:10:00</t>
+        </is>
+      </c>
+      <c r="B916" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:11:00</t>
+        </is>
+      </c>
+      <c r="B917" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:12:00</t>
+        </is>
+      </c>
+      <c r="B918" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:13:00</t>
+        </is>
+      </c>
+      <c r="B919" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:14:00</t>
+        </is>
+      </c>
+      <c r="B920" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:15:00</t>
+        </is>
+      </c>
+      <c r="B921" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:16:00</t>
+        </is>
+      </c>
+      <c r="B922" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:17:00</t>
+        </is>
+      </c>
+      <c r="B923" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:18:00</t>
+        </is>
+      </c>
+      <c r="B924" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:19:00</t>
+        </is>
+      </c>
+      <c r="B925" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:20:00</t>
+        </is>
+      </c>
+      <c r="B926" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:21:00</t>
+        </is>
+      </c>
+      <c r="B927" t="n">
+        <v>297</v>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:22:00</t>
+        </is>
+      </c>
+      <c r="B928" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:23:00</t>
+        </is>
+      </c>
+      <c r="B929" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:24:00</t>
+        </is>
+      </c>
+      <c r="B930" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:25:00</t>
+        </is>
+      </c>
+      <c r="B931" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:26:00</t>
+        </is>
+      </c>
+      <c r="B932" t="n">
+        <v>264</v>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="1" t="n">
+        <v>45914.53939133102</v>
+      </c>
+      <c r="B933" t="n">
+        <v>264</v>
+      </c>
+      <c r="C933" t="n">
+        <v>660</v>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>12:56</t>
+        </is>
+      </c>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:14:00</t>
+        </is>
+      </c>
+      <c r="B934" t="n">
+        <v>429</v>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:15:00</t>
+        </is>
+      </c>
+      <c r="B935" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:16:00</t>
+        </is>
+      </c>
+      <c r="B936" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:17:00</t>
+        </is>
+      </c>
+      <c r="B937" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:18:00</t>
+        </is>
+      </c>
+      <c r="B938" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:19:00</t>
+        </is>
+      </c>
+      <c r="B939" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:20:00</t>
+        </is>
+      </c>
+      <c r="B940" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:21:00</t>
+        </is>
+      </c>
+      <c r="B941" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:22:00</t>
+        </is>
+      </c>
+      <c r="B942" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:23:00</t>
+        </is>
+      </c>
+      <c r="B943" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:24:00</t>
+        </is>
+      </c>
+      <c r="B944" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:25:00</t>
+        </is>
+      </c>
+      <c r="B945" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:26:00</t>
+        </is>
+      </c>
+      <c r="B946" t="n">
+        <v>297</v>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:27:00</t>
+        </is>
+      </c>
+      <c r="B947" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:28:00</t>
+        </is>
+      </c>
+      <c r="B948" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:29:00</t>
+        </is>
+      </c>
+      <c r="B949" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:30:00</t>
+        </is>
+      </c>
+      <c r="B950" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:31:00</t>
+        </is>
+      </c>
+      <c r="B951" t="n">
+        <v>264</v>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" s="1" t="n">
+        <v>45914.53989724537</v>
+      </c>
+      <c r="B952" t="n">
+        <v>264</v>
+      </c>
+      <c r="C952" t="n">
+        <v>660</v>
+      </c>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>12:57</t>
+        </is>
+      </c>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:15:00</t>
+        </is>
+      </c>
+      <c r="B953" t="n">
+        <v>429</v>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:16:00</t>
+        </is>
+      </c>
+      <c r="B954" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:17:00</t>
+        </is>
+      </c>
+      <c r="B955" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:18:00</t>
+        </is>
+      </c>
+      <c r="B956" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:19:00</t>
+        </is>
+      </c>
+      <c r="B957" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:20:00</t>
+        </is>
+      </c>
+      <c r="B958" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:21:00</t>
+        </is>
+      </c>
+      <c r="B959" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:22:00</t>
+        </is>
+      </c>
+      <c r="B960" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:23:00</t>
+        </is>
+      </c>
+      <c r="B961" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:24:00</t>
+        </is>
+      </c>
+      <c r="B962" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:25:00</t>
+        </is>
+      </c>
+      <c r="B963" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:26:00</t>
+        </is>
+      </c>
+      <c r="B964" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:27:00</t>
+        </is>
+      </c>
+      <c r="B965" t="n">
+        <v>297</v>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:28:00</t>
+        </is>
+      </c>
+      <c r="B966" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:29:00</t>
+        </is>
+      </c>
+      <c r="B967" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:30:00</t>
+        </is>
+      </c>
+      <c r="B968" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:31:00</t>
+        </is>
+      </c>
+      <c r="B969" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:32:00</t>
+        </is>
+      </c>
+      <c r="B970" t="n">
+        <v>264</v>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="1" t="n">
+        <v>45914.54083400463</v>
+      </c>
+      <c r="B971" t="n">
+        <v>264</v>
+      </c>
+      <c r="C971" t="n">
+        <v>500</v>
+      </c>
+      <c r="D971" t="inlineStr">
+        <is>
+          <t>12:58</t>
+        </is>
+      </c>
+      <c r="E971" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 500.0 MW/Tăng tải lên 500.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:31:00</t>
+        </is>
+      </c>
+      <c r="B972" t="n">
+        <v>429</v>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:32:00</t>
+        </is>
+      </c>
+      <c r="B973" t="n">
+        <v>442.2</v>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:33:00</t>
+        </is>
+      </c>
+      <c r="B974" t="n">
+        <v>455.4</v>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:34:00</t>
+        </is>
+      </c>
+      <c r="B975" t="n">
+        <v>468.6</v>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:35:00</t>
+        </is>
+      </c>
+      <c r="B976" t="n">
+        <v>481.8</v>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:36:00</t>
+        </is>
+      </c>
+      <c r="B977" t="n">
+        <v>494.9999999999999</v>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:37:00</t>
+        </is>
+      </c>
+      <c r="B978" t="n">
+        <v>508.1999999999999</v>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:38:00</t>
+        </is>
+      </c>
+      <c r="B979" t="n">
+        <v>521.4</v>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:39:00</t>
+        </is>
+      </c>
+      <c r="B980" t="n">
+        <v>534.6</v>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:40:00</t>
+        </is>
+      </c>
+      <c r="B981" t="n">
+        <v>547.8000000000001</v>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:41:00</t>
+        </is>
+      </c>
+      <c r="B982" t="n">
+        <v>561.0000000000001</v>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:42:00</t>
+        </is>
+      </c>
+      <c r="B983" t="n">
+        <v>574.2000000000002</v>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:43:00</t>
+        </is>
+      </c>
+      <c r="B984" t="n">
+        <v>587.4000000000002</v>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:44:00</t>
+        </is>
+      </c>
+      <c r="B985" t="n">
+        <v>600.6000000000003</v>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:45:00</t>
+        </is>
+      </c>
+      <c r="B986" t="n">
+        <v>613.8000000000003</v>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:46:00</t>
+        </is>
+      </c>
+      <c r="B987" t="n">
+        <v>627.0000000000003</v>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:47:00</t>
+        </is>
+      </c>
+      <c r="B988" t="n">
+        <v>640.2000000000004</v>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:48:00</t>
+        </is>
+      </c>
+      <c r="B989" t="n">
+        <v>653.4000000000004</v>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:49:00</t>
+        </is>
+      </c>
+      <c r="B990" t="n">
+        <v>660</v>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" s="1" t="n">
+        <v>45914.5422284375</v>
+      </c>
+      <c r="B991" t="n">
+        <v>264</v>
+      </c>
+      <c r="C991" t="n">
+        <v>660</v>
+      </c>
+      <c r="D991" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="E991" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:18:00</t>
+        </is>
+      </c>
+      <c r="B992" t="n">
+        <v>429</v>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:19:00</t>
+        </is>
+      </c>
+      <c r="B993" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:20:00</t>
+        </is>
+      </c>
+      <c r="B994" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:21:00</t>
+        </is>
+      </c>
+      <c r="B995" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:22:00</t>
+        </is>
+      </c>
+      <c r="B996" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:23:00</t>
+        </is>
+      </c>
+      <c r="B997" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:24:00</t>
+        </is>
+      </c>
+      <c r="B998" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:25:00</t>
+        </is>
+      </c>
+      <c r="B999" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:26:00</t>
+        </is>
+      </c>
+      <c r="B1000" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:27:00</t>
+        </is>
+      </c>
+      <c r="B1001" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:28:00</t>
+        </is>
+      </c>
+      <c r="B1002" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:29:00</t>
+        </is>
+      </c>
+      <c r="B1003" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:30:00</t>
+        </is>
+      </c>
+      <c r="B1004" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:31:00</t>
+        </is>
+      </c>
+      <c r="B1005" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:32:00</t>
+        </is>
+      </c>
+      <c r="B1006" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:33:00</t>
+        </is>
+      </c>
+      <c r="B1007" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:34:00</t>
+        </is>
+      </c>
+      <c r="B1008" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:35:00</t>
+        </is>
+      </c>
+      <c r="B1009" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="1" t="n">
+        <v>45914.54392385417</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1010" t="inlineStr">
+        <is>
+          <t>13:03</t>
+        </is>
+      </c>
+      <c r="E1010" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="1" t="n">
+        <v>45914.54881659722</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1011" t="inlineStr">
+        <is>
+          <t>13:10</t>
+        </is>
+      </c>
+      <c r="E1011" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:28:00</t>
+        </is>
+      </c>
+      <c r="B1012" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:29:00</t>
+        </is>
+      </c>
+      <c r="B1013" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:30:00</t>
+        </is>
+      </c>
+      <c r="B1014" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:31:00</t>
+        </is>
+      </c>
+      <c r="B1015" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:32:00</t>
+        </is>
+      </c>
+      <c r="B1016" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:33:00</t>
+        </is>
+      </c>
+      <c r="B1017" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:34:00</t>
+        </is>
+      </c>
+      <c r="B1018" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:35:00</t>
+        </is>
+      </c>
+      <c r="B1019" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:36:00</t>
+        </is>
+      </c>
+      <c r="B1020" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:37:00</t>
+        </is>
+      </c>
+      <c r="B1021" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:38:00</t>
+        </is>
+      </c>
+      <c r="B1022" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:39:00</t>
+        </is>
+      </c>
+      <c r="B1023" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:40:00</t>
+        </is>
+      </c>
+      <c r="B1024" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:41:00</t>
+        </is>
+      </c>
+      <c r="B1025" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:42:00</t>
+        </is>
+      </c>
+      <c r="B1026" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:43:00</t>
+        </is>
+      </c>
+      <c r="B1027" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:44:00</t>
+        </is>
+      </c>
+      <c r="B1028" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:45:00</t>
+        </is>
+      </c>
+      <c r="B1029" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1029" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="1" t="n">
+        <v>45914.55190916666</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>600</v>
+      </c>
+      <c r="D1030" t="inlineStr">
+        <is>
+          <t>13:14</t>
+        </is>
+      </c>
+      <c r="E1030" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 600.0 MW/Tăng tải lên 600.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:32:00</t>
+        </is>
+      </c>
+      <c r="B1031" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:33:00</t>
+        </is>
+      </c>
+      <c r="B1032" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1032" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:34:00</t>
+        </is>
+      </c>
+      <c r="B1033" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1033" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:35:00</t>
+        </is>
+      </c>
+      <c r="B1034" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1034" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:36:00</t>
+        </is>
+      </c>
+      <c r="B1035" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1035" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:37:00</t>
+        </is>
+      </c>
+      <c r="B1036" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1036" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:38:00</t>
+        </is>
+      </c>
+      <c r="B1037" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1037" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:39:00</t>
+        </is>
+      </c>
+      <c r="B1038" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1038" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:40:00</t>
+        </is>
+      </c>
+      <c r="B1039" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1039" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:41:00</t>
+        </is>
+      </c>
+      <c r="B1040" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1040" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:42:00</t>
+        </is>
+      </c>
+      <c r="B1041" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:43:00</t>
+        </is>
+      </c>
+      <c r="B1042" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:44:00</t>
+        </is>
+      </c>
+      <c r="B1043" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:45:00</t>
+        </is>
+      </c>
+      <c r="B1044" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:46:00</t>
+        </is>
+      </c>
+      <c r="B1045" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1045" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:47:00</t>
+        </is>
+      </c>
+      <c r="B1046" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1046" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:48:00</t>
+        </is>
+      </c>
+      <c r="B1047" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1047" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:49:00</t>
+        </is>
+      </c>
+      <c r="B1048" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1048" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="1" t="n">
+        <v>45914.55292201389</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>600</v>
+      </c>
+      <c r="D1049" t="inlineStr">
+        <is>
+          <t>13:16</t>
+        </is>
+      </c>
+      <c r="E1049" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 600.0 MW/Tăng tải lên 600.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:49:00</t>
+        </is>
+      </c>
+      <c r="B1050" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1050" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:50:00</t>
+        </is>
+      </c>
+      <c r="B1051" t="n">
+        <v>442.2</v>
+      </c>
+      <c r="C1051" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:51:00</t>
+        </is>
+      </c>
+      <c r="B1052" t="n">
+        <v>455.4</v>
+      </c>
+      <c r="C1052" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:52:00</t>
+        </is>
+      </c>
+      <c r="B1053" t="n">
+        <v>468.6</v>
+      </c>
+      <c r="C1053" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:53:00</t>
+        </is>
+      </c>
+      <c r="B1054" t="n">
+        <v>481.8</v>
+      </c>
+      <c r="C1054" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:54:00</t>
+        </is>
+      </c>
+      <c r="B1055" t="n">
+        <v>494.9999999999999</v>
+      </c>
+      <c r="C1055" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:55:00</t>
+        </is>
+      </c>
+      <c r="B1056" t="n">
+        <v>508.1999999999999</v>
+      </c>
+      <c r="C1056" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:56:00</t>
+        </is>
+      </c>
+      <c r="B1057" t="n">
+        <v>521.4</v>
+      </c>
+      <c r="C1057" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:57:00</t>
+        </is>
+      </c>
+      <c r="B1058" t="n">
+        <v>534.6</v>
+      </c>
+      <c r="C1058" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:58:00</t>
+        </is>
+      </c>
+      <c r="B1059" t="n">
+        <v>547.8000000000001</v>
+      </c>
+      <c r="C1059" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>2025-09-14 13:59:00</t>
+        </is>
+      </c>
+      <c r="B1060" t="n">
+        <v>561.0000000000001</v>
+      </c>
+      <c r="C1060" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:00:00</t>
+        </is>
+      </c>
+      <c r="B1061" t="n">
+        <v>574.2000000000002</v>
+      </c>
+      <c r="C1061" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:01:00</t>
+        </is>
+      </c>
+      <c r="B1062" t="n">
+        <v>587.4000000000002</v>
+      </c>
+      <c r="C1062" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:02:00</t>
+        </is>
+      </c>
+      <c r="B1063" t="n">
+        <v>600.6000000000003</v>
+      </c>
+      <c r="C1063" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:03:00</t>
+        </is>
+      </c>
+      <c r="B1064" t="n">
+        <v>613.8000000000003</v>
+      </c>
+      <c r="C1064" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:04:00</t>
+        </is>
+      </c>
+      <c r="B1065" t="n">
+        <v>627.0000000000003</v>
+      </c>
+      <c r="C1065" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:05:00</t>
+        </is>
+      </c>
+      <c r="B1066" t="n">
+        <v>640.2000000000004</v>
+      </c>
+      <c r="C1066" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:06:00</t>
+        </is>
+      </c>
+      <c r="B1067" t="n">
+        <v>653.4000000000004</v>
+      </c>
+      <c r="C1067" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:07:00</t>
+        </is>
+      </c>
+      <c r="B1068" t="n">
+        <v>660</v>
+      </c>
+      <c r="C1068" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="1" t="n">
+        <v>45914.55392931713</v>
+      </c>
+      <c r="B1069" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>600</v>
+      </c>
+      <c r="D1069" t="inlineStr">
+        <is>
+          <t>13:17</t>
+        </is>
+      </c>
+      <c r="E1069" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 600.0 MW/Tăng tải lên 600.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:35:00</t>
+        </is>
+      </c>
+      <c r="B1070" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:36:00</t>
+        </is>
+      </c>
+      <c r="B1071" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1071" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:37:00</t>
+        </is>
+      </c>
+      <c r="B1072" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:38:00</t>
+        </is>
+      </c>
+      <c r="B1073" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1073" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:39:00</t>
+        </is>
+      </c>
+      <c r="B1074" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1074" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:40:00</t>
+        </is>
+      </c>
+      <c r="B1075" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1075" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:41:00</t>
+        </is>
+      </c>
+      <c r="B1076" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1076" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:42:00</t>
+        </is>
+      </c>
+      <c r="B1077" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:43:00</t>
+        </is>
+      </c>
+      <c r="B1078" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:44:00</t>
+        </is>
+      </c>
+      <c r="B1079" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:45:00</t>
+        </is>
+      </c>
+      <c r="B1080" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1080" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:46:00</t>
+        </is>
+      </c>
+      <c r="B1081" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1081" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:47:00</t>
+        </is>
+      </c>
+      <c r="B1082" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:48:00</t>
+        </is>
+      </c>
+      <c r="B1083" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:49:00</t>
+        </is>
+      </c>
+      <c r="B1084" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:50:00</t>
+        </is>
+      </c>
+      <c r="B1085" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:51:00</t>
+        </is>
+      </c>
+      <c r="B1086" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:52:00</t>
+        </is>
+      </c>
+      <c r="B1087" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="1" t="n">
+        <v>45914.55831707176</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>556</v>
+      </c>
+      <c r="D1088" t="inlineStr">
+        <is>
+          <t>13:23</t>
+        </is>
+      </c>
+      <c r="E1088" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 556.0 MW/Tăng tải lên 556.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:41:00</t>
+        </is>
+      </c>
+      <c r="B1089" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:42:00</t>
+        </is>
+      </c>
+      <c r="B1090" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1090" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:43:00</t>
+        </is>
+      </c>
+      <c r="B1091" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1091" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:44:00</t>
+        </is>
+      </c>
+      <c r="B1092" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1092" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:45:00</t>
+        </is>
+      </c>
+      <c r="B1093" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1093" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:46:00</t>
+        </is>
+      </c>
+      <c r="B1094" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1094" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:47:00</t>
+        </is>
+      </c>
+      <c r="B1095" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:48:00</t>
+        </is>
+      </c>
+      <c r="B1096" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1096" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:49:00</t>
+        </is>
+      </c>
+      <c r="B1097" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:50:00</t>
+        </is>
+      </c>
+      <c r="B1098" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:51:00</t>
+        </is>
+      </c>
+      <c r="B1099" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1099" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:52:00</t>
+        </is>
+      </c>
+      <c r="B1100" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:53:00</t>
+        </is>
+      </c>
+      <c r="B1101" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:54:00</t>
+        </is>
+      </c>
+      <c r="B1102" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1102" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:55:00</t>
+        </is>
+      </c>
+      <c r="B1103" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1103" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:56:00</t>
+        </is>
+      </c>
+      <c r="B1104" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1104" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:57:00</t>
+        </is>
+      </c>
+      <c r="B1105" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1105" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:58:00</t>
+        </is>
+      </c>
+      <c r="B1106" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1106" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="1" t="n">
+        <v>45914.56013976852</v>
+      </c>
+      <c r="B1107" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>654</v>
+      </c>
+      <c r="D1107" t="inlineStr">
+        <is>
+          <t>13:26</t>
+        </is>
+      </c>
+      <c r="E1107" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 654.0 MW/Tăng tải lên 654.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:44:00</t>
+        </is>
+      </c>
+      <c r="B1108" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1108" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:45:00</t>
+        </is>
+      </c>
+      <c r="B1109" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1109" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:46:00</t>
+        </is>
+      </c>
+      <c r="B1110" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1110" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:47:00</t>
+        </is>
+      </c>
+      <c r="B1111" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1111" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:48:00</t>
+        </is>
+      </c>
+      <c r="B1112" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1112" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:49:00</t>
+        </is>
+      </c>
+      <c r="B1113" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1113" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:50:00</t>
+        </is>
+      </c>
+      <c r="B1114" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1114" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:51:00</t>
+        </is>
+      </c>
+      <c r="B1115" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1115" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:52:00</t>
+        </is>
+      </c>
+      <c r="B1116" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1116" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:53:00</t>
+        </is>
+      </c>
+      <c r="B1117" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1117" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:54:00</t>
+        </is>
+      </c>
+      <c r="B1118" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1118" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:55:00</t>
+        </is>
+      </c>
+      <c r="B1119" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1119" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:56:00</t>
+        </is>
+      </c>
+      <c r="B1120" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1120" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:57:00</t>
+        </is>
+      </c>
+      <c r="B1121" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1121" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:58:00</t>
+        </is>
+      </c>
+      <c r="B1122" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1122" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:59:00</t>
+        </is>
+      </c>
+      <c r="B1123" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1123" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>2025-09-14 15:00:00</t>
+        </is>
+      </c>
+      <c r="B1124" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1124" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>2025-09-14 15:01:00</t>
+        </is>
+      </c>
+      <c r="B1125" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="1" t="n">
+        <v>45914.56159087654</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>555</v>
+      </c>
+      <c r="D1126" t="inlineStr">
+        <is>
+          <t>13:28</t>
+        </is>
+      </c>
+      <c r="E1126" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 555.0 MW/Tăng tải lên 555.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:46:00</t>
+        </is>
+      </c>
+      <c r="B1127" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:47:00</t>
+        </is>
+      </c>
+      <c r="B1128" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1128" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:48:00</t>
+        </is>
+      </c>
+      <c r="B1129" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1129" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:49:00</t>
+        </is>
+      </c>
+      <c r="B1130" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:50:00</t>
+        </is>
+      </c>
+      <c r="B1131" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1131" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:51:00</t>
+        </is>
+      </c>
+      <c r="B1132" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1132" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:52:00</t>
+        </is>
+      </c>
+      <c r="B1133" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1133" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:53:00</t>
+        </is>
+      </c>
+      <c r="B1134" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1134" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:54:00</t>
+        </is>
+      </c>
+      <c r="B1135" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1135" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:55:00</t>
+        </is>
+      </c>
+      <c r="B1136" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1136" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:56:00</t>
+        </is>
+      </c>
+      <c r="B1137" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1137" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:57:00</t>
+        </is>
+      </c>
+      <c r="B1138" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1138" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:58:00</t>
+        </is>
+      </c>
+      <c r="B1139" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1139" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:59:00</t>
+        </is>
+      </c>
+      <c r="B1140" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1140" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>2025-09-14 15:00:00</t>
+        </is>
+      </c>
+      <c r="B1141" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1141" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>2025-09-14 15:01:00</t>
+        </is>
+      </c>
+      <c r="B1142" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1142" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>2025-09-14 15:02:00</t>
+        </is>
+      </c>
+      <c r="B1143" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1143" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>2025-09-14 15:03:00</t>
+        </is>
+      </c>
+      <c r="B1144" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1144" t="inlineStr">
         <is>
           <t>ramp</t>
         </is>

--- a/abc.xlsx
+++ b/abc.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E1144"/>
+  <dimension ref="A2:E1264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17598,7 +17598,7 @@
     </row>
     <row r="1126">
       <c r="A1126" s="1" t="n">
-        <v>45914.56159087654</v>
+        <v>45914.56159087963</v>
       </c>
       <c r="B1126" t="n">
         <v>264</v>
@@ -17882,6 +17882,1866 @@
         <v>264</v>
       </c>
       <c r="C1144" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="1" t="n">
+        <v>45914.57733601852</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>550</v>
+      </c>
+      <c r="D1145" t="inlineStr">
+        <is>
+          <t>13:51</t>
+        </is>
+      </c>
+      <c r="E1145" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 550.0 MW/Tăng tải lên 550.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>2025-09-14 15:09:00</t>
+        </is>
+      </c>
+      <c r="B1146" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>2025-09-14 15:10:00</t>
+        </is>
+      </c>
+      <c r="B1147" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1147" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>2025-09-14 15:11:00</t>
+        </is>
+      </c>
+      <c r="B1148" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>2025-09-14 15:12:00</t>
+        </is>
+      </c>
+      <c r="B1149" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>2025-09-14 15:13:00</t>
+        </is>
+      </c>
+      <c r="B1150" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>2025-09-14 15:14:00</t>
+        </is>
+      </c>
+      <c r="B1151" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>2025-09-14 15:15:00</t>
+        </is>
+      </c>
+      <c r="B1152" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>2025-09-14 15:16:00</t>
+        </is>
+      </c>
+      <c r="B1153" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>2025-09-14 15:17:00</t>
+        </is>
+      </c>
+      <c r="B1154" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>2025-09-14 15:18:00</t>
+        </is>
+      </c>
+      <c r="B1155" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>2025-09-14 15:19:00</t>
+        </is>
+      </c>
+      <c r="B1156" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1156" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>2025-09-14 15:20:00</t>
+        </is>
+      </c>
+      <c r="B1157" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>2025-09-14 15:21:00</t>
+        </is>
+      </c>
+      <c r="B1158" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>2025-09-14 15:22:00</t>
+        </is>
+      </c>
+      <c r="B1159" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>2025-09-14 15:23:00</t>
+        </is>
+      </c>
+      <c r="B1160" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1160" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>2025-09-14 15:24:00</t>
+        </is>
+      </c>
+      <c r="B1161" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>2025-09-14 15:25:00</t>
+        </is>
+      </c>
+      <c r="B1162" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>2025-09-14 15:26:00</t>
+        </is>
+      </c>
+      <c r="B1163" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="1" t="n">
+        <v>45914.57774482639</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>550</v>
+      </c>
+      <c r="D1164" t="inlineStr">
+        <is>
+          <t>13:51</t>
+        </is>
+      </c>
+      <c r="E1164" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 550.0 MW/Tăng tải lên 550.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:24:00</t>
+        </is>
+      </c>
+      <c r="B1165" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:25:00</t>
+        </is>
+      </c>
+      <c r="B1166" t="n">
+        <v>442.2</v>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:26:00</t>
+        </is>
+      </c>
+      <c r="B1167" t="n">
+        <v>455.4</v>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:27:00</t>
+        </is>
+      </c>
+      <c r="B1168" t="n">
+        <v>468.6</v>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:28:00</t>
+        </is>
+      </c>
+      <c r="B1169" t="n">
+        <v>481.8</v>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:29:00</t>
+        </is>
+      </c>
+      <c r="B1170" t="n">
+        <v>494.9999999999999</v>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:30:00</t>
+        </is>
+      </c>
+      <c r="B1171" t="n">
+        <v>508.1999999999999</v>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:31:00</t>
+        </is>
+      </c>
+      <c r="B1172" t="n">
+        <v>521.4</v>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:32:00</t>
+        </is>
+      </c>
+      <c r="B1173" t="n">
+        <v>534.6</v>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:33:00</t>
+        </is>
+      </c>
+      <c r="B1174" t="n">
+        <v>547.8000000000001</v>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:34:00</t>
+        </is>
+      </c>
+      <c r="B1175" t="n">
+        <v>561.0000000000001</v>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:35:00</t>
+        </is>
+      </c>
+      <c r="B1176" t="n">
+        <v>574.2000000000002</v>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:36:00</t>
+        </is>
+      </c>
+      <c r="B1177" t="n">
+        <v>587.4000000000002</v>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:37:00</t>
+        </is>
+      </c>
+      <c r="B1178" t="n">
+        <v>600.6000000000003</v>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:38:00</t>
+        </is>
+      </c>
+      <c r="B1179" t="n">
+        <v>613.8000000000003</v>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:39:00</t>
+        </is>
+      </c>
+      <c r="B1180" t="n">
+        <v>627.0000000000003</v>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:40:00</t>
+        </is>
+      </c>
+      <c r="B1181" t="n">
+        <v>640.2000000000004</v>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:41:00</t>
+        </is>
+      </c>
+      <c r="B1182" t="n">
+        <v>653.4000000000004</v>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>2025-09-14 14:42:00</t>
+        </is>
+      </c>
+      <c r="B1183" t="n">
+        <v>660</v>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="1" t="n">
+        <v>45914.5796558912</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>660</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>264</v>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>13:54</t>
+        </is>
+      </c>
+      <c r="E1184" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="1" t="n">
+        <v>45914.58142091435</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>660</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>264</v>
+      </c>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>13:57</t>
+        </is>
+      </c>
+      <c r="E1185" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="1" t="n">
+        <v>45914.58549527778</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>600</v>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>14:03</t>
+        </is>
+      </c>
+      <c r="E1186" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 600.0 MW/Tăng tải lên 600.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="1" t="n">
+        <v>45914.58573965278</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>600</v>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>14:03</t>
+        </is>
+      </c>
+      <c r="E1187" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 600.0 MW/Tăng tải lên 600.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="1" t="n">
+        <v>45914.58614173611</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>14:04</t>
+        </is>
+      </c>
+      <c r="E1188" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" s="1" t="n">
+        <v>45914.58711096065</v>
+      </c>
+      <c r="B1189" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1189" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>14:05</t>
+        </is>
+      </c>
+      <c r="E1189" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="1" t="n">
+        <v>45915.39805489562</v>
+      </c>
+      <c r="B1190" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1190" t="n">
+        <v>600</v>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="E1190" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 600.0 MW/Tăng tải lên 600.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:51:00</t>
+        </is>
+      </c>
+      <c r="B1191" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:52:00</t>
+        </is>
+      </c>
+      <c r="B1192" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:53:00</t>
+        </is>
+      </c>
+      <c r="B1193" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:54:00</t>
+        </is>
+      </c>
+      <c r="B1194" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:55:00</t>
+        </is>
+      </c>
+      <c r="B1195" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:56:00</t>
+        </is>
+      </c>
+      <c r="B1196" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:57:00</t>
+        </is>
+      </c>
+      <c r="B1197" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:58:00</t>
+        </is>
+      </c>
+      <c r="B1198" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:59:00</t>
+        </is>
+      </c>
+      <c r="B1199" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:00:00</t>
+        </is>
+      </c>
+      <c r="B1200" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:01:00</t>
+        </is>
+      </c>
+      <c r="B1201" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:02:00</t>
+        </is>
+      </c>
+      <c r="B1202" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:03:00</t>
+        </is>
+      </c>
+      <c r="B1203" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:04:00</t>
+        </is>
+      </c>
+      <c r="B1204" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:05:00</t>
+        </is>
+      </c>
+      <c r="B1205" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:06:00</t>
+        </is>
+      </c>
+      <c r="B1206" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:07:00</t>
+        </is>
+      </c>
+      <c r="B1207" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:08:00</t>
+        </is>
+      </c>
+      <c r="B1208" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="1" t="n">
+        <v>45915.39834450345</v>
+      </c>
+      <c r="B1209" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1209" t="n">
+        <v>600</v>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="E1209" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 600.0 MW/Tăng tải lên 600.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:51:00</t>
+        </is>
+      </c>
+      <c r="B1210" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:52:00</t>
+        </is>
+      </c>
+      <c r="B1211" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:53:00</t>
+        </is>
+      </c>
+      <c r="B1212" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:54:00</t>
+        </is>
+      </c>
+      <c r="B1213" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:55:00</t>
+        </is>
+      </c>
+      <c r="B1214" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:56:00</t>
+        </is>
+      </c>
+      <c r="B1215" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:57:00</t>
+        </is>
+      </c>
+      <c r="B1216" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:58:00</t>
+        </is>
+      </c>
+      <c r="B1217" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:59:00</t>
+        </is>
+      </c>
+      <c r="B1218" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:00:00</t>
+        </is>
+      </c>
+      <c r="B1219" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:01:00</t>
+        </is>
+      </c>
+      <c r="B1220" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:02:00</t>
+        </is>
+      </c>
+      <c r="B1221" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:03:00</t>
+        </is>
+      </c>
+      <c r="B1222" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:04:00</t>
+        </is>
+      </c>
+      <c r="B1223" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:05:00</t>
+        </is>
+      </c>
+      <c r="B1224" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:06:00</t>
+        </is>
+      </c>
+      <c r="B1225" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:07:00</t>
+        </is>
+      </c>
+      <c r="B1226" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:08:00</t>
+        </is>
+      </c>
+      <c r="B1227" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:51:00</t>
+        </is>
+      </c>
+      <c r="B1228" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:52:00</t>
+        </is>
+      </c>
+      <c r="B1229" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:53:00</t>
+        </is>
+      </c>
+      <c r="B1230" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:54:00</t>
+        </is>
+      </c>
+      <c r="B1231" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:55:00</t>
+        </is>
+      </c>
+      <c r="B1232" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:56:00</t>
+        </is>
+      </c>
+      <c r="B1233" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:57:00</t>
+        </is>
+      </c>
+      <c r="B1234" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:58:00</t>
+        </is>
+      </c>
+      <c r="B1235" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:59:00</t>
+        </is>
+      </c>
+      <c r="B1236" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:00:00</t>
+        </is>
+      </c>
+      <c r="B1237" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:01:00</t>
+        </is>
+      </c>
+      <c r="B1238" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:02:00</t>
+        </is>
+      </c>
+      <c r="B1239" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:03:00</t>
+        </is>
+      </c>
+      <c r="B1240" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:04:00</t>
+        </is>
+      </c>
+      <c r="B1241" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:05:00</t>
+        </is>
+      </c>
+      <c r="B1242" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1242" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:06:00</t>
+        </is>
+      </c>
+      <c r="B1243" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1243" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:07:00</t>
+        </is>
+      </c>
+      <c r="B1244" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1244" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:08:00</t>
+        </is>
+      </c>
+      <c r="B1245" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1245" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:08:00</t>
+        </is>
+      </c>
+      <c r="B1246" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1246" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:09:00</t>
+        </is>
+      </c>
+      <c r="B1247" t="n">
+        <v>442.2</v>
+      </c>
+      <c r="C1247" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:10:00</t>
+        </is>
+      </c>
+      <c r="B1248" t="n">
+        <v>455.4</v>
+      </c>
+      <c r="C1248" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:11:00</t>
+        </is>
+      </c>
+      <c r="B1249" t="n">
+        <v>468.6</v>
+      </c>
+      <c r="C1249" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:12:00</t>
+        </is>
+      </c>
+      <c r="B1250" t="n">
+        <v>481.8</v>
+      </c>
+      <c r="C1250" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:13:00</t>
+        </is>
+      </c>
+      <c r="B1251" t="n">
+        <v>494.9999999999999</v>
+      </c>
+      <c r="C1251" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:14:00</t>
+        </is>
+      </c>
+      <c r="B1252" t="n">
+        <v>508.1999999999999</v>
+      </c>
+      <c r="C1252" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:15:00</t>
+        </is>
+      </c>
+      <c r="B1253" t="n">
+        <v>521.4</v>
+      </c>
+      <c r="C1253" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:16:00</t>
+        </is>
+      </c>
+      <c r="B1254" t="n">
+        <v>534.6</v>
+      </c>
+      <c r="C1254" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:17:00</t>
+        </is>
+      </c>
+      <c r="B1255" t="n">
+        <v>547.8000000000001</v>
+      </c>
+      <c r="C1255" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:18:00</t>
+        </is>
+      </c>
+      <c r="B1256" t="n">
+        <v>561.0000000000001</v>
+      </c>
+      <c r="C1256" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:19:00</t>
+        </is>
+      </c>
+      <c r="B1257" t="n">
+        <v>574.2000000000002</v>
+      </c>
+      <c r="C1257" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:20:00</t>
+        </is>
+      </c>
+      <c r="B1258" t="n">
+        <v>587.4000000000002</v>
+      </c>
+      <c r="C1258" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:21:00</t>
+        </is>
+      </c>
+      <c r="B1259" t="n">
+        <v>600.6000000000003</v>
+      </c>
+      <c r="C1259" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:22:00</t>
+        </is>
+      </c>
+      <c r="B1260" t="n">
+        <v>613.8000000000003</v>
+      </c>
+      <c r="C1260" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:23:00</t>
+        </is>
+      </c>
+      <c r="B1261" t="n">
+        <v>627.0000000000003</v>
+      </c>
+      <c r="C1261" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:24:00</t>
+        </is>
+      </c>
+      <c r="B1262" t="n">
+        <v>640.2000000000004</v>
+      </c>
+      <c r="C1262" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:25:00</t>
+        </is>
+      </c>
+      <c r="B1263" t="n">
+        <v>653.4000000000004</v>
+      </c>
+      <c r="C1263" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:26:00</t>
+        </is>
+      </c>
+      <c r="B1264" t="n">
+        <v>660</v>
+      </c>
+      <c r="C1264" t="inlineStr">
         <is>
           <t>ramp</t>
         </is>

--- a/abc.xlsx
+++ b/abc.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E1264"/>
+  <dimension ref="A2:E1742"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18612,7 +18612,7 @@
     </row>
     <row r="1190">
       <c r="A1190" s="1" t="n">
-        <v>45915.39805489562</v>
+        <v>45915.39805489584</v>
       </c>
       <c r="B1190" t="n">
         <v>264</v>
@@ -18903,7 +18903,7 @@
     </row>
     <row r="1209">
       <c r="A1209" s="1" t="n">
-        <v>45915.39834450345</v>
+        <v>45915.39834450231</v>
       </c>
       <c r="B1209" t="n">
         <v>264</v>
@@ -19742,6 +19742,7338 @@
         <v>660</v>
       </c>
       <c r="C1264" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="1" t="n">
+        <v>45915.59456961806</v>
+      </c>
+      <c r="B1265" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1265" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1265" t="inlineStr">
+        <is>
+          <t>14:16</t>
+        </is>
+      </c>
+      <c r="E1265" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:34:00</t>
+        </is>
+      </c>
+      <c r="B1266" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1266" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:35:00</t>
+        </is>
+      </c>
+      <c r="B1267" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1267" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:36:00</t>
+        </is>
+      </c>
+      <c r="B1268" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1268" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:37:00</t>
+        </is>
+      </c>
+      <c r="B1269" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1269" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:38:00</t>
+        </is>
+      </c>
+      <c r="B1270" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1270" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:39:00</t>
+        </is>
+      </c>
+      <c r="B1271" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1271" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:40:00</t>
+        </is>
+      </c>
+      <c r="B1272" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1272" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:41:00</t>
+        </is>
+      </c>
+      <c r="B1273" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1273" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:42:00</t>
+        </is>
+      </c>
+      <c r="B1274" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1274" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:43:00</t>
+        </is>
+      </c>
+      <c r="B1275" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1275" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:44:00</t>
+        </is>
+      </c>
+      <c r="B1276" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1276" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:45:00</t>
+        </is>
+      </c>
+      <c r="B1277" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1277" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:46:00</t>
+        </is>
+      </c>
+      <c r="B1278" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1278" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:47:00</t>
+        </is>
+      </c>
+      <c r="B1279" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1279" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:48:00</t>
+        </is>
+      </c>
+      <c r="B1280" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1280" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:49:00</t>
+        </is>
+      </c>
+      <c r="B1281" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1281" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:50:00</t>
+        </is>
+      </c>
+      <c r="B1282" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1282" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:51:00</t>
+        </is>
+      </c>
+      <c r="B1283" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1283" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="1" t="n">
+        <v>45915.59626680556</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1284" t="n">
+        <v>500</v>
+      </c>
+      <c r="D1284" t="inlineStr">
+        <is>
+          <t>14:18</t>
+        </is>
+      </c>
+      <c r="E1284" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 500.0 MW/Tăng tải lên 500.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="inlineStr">
+        <is>
+          <t>2025-09-15 14:51:00</t>
+        </is>
+      </c>
+      <c r="B1285" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1285" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="inlineStr">
+        <is>
+          <t>2025-09-15 14:52:00</t>
+        </is>
+      </c>
+      <c r="B1286" t="n">
+        <v>442.2</v>
+      </c>
+      <c r="C1286" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="inlineStr">
+        <is>
+          <t>2025-09-15 14:53:00</t>
+        </is>
+      </c>
+      <c r="B1287" t="n">
+        <v>455.4</v>
+      </c>
+      <c r="C1287" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="inlineStr">
+        <is>
+          <t>2025-09-15 14:54:00</t>
+        </is>
+      </c>
+      <c r="B1288" t="n">
+        <v>468.6</v>
+      </c>
+      <c r="C1288" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="inlineStr">
+        <is>
+          <t>2025-09-15 14:55:00</t>
+        </is>
+      </c>
+      <c r="B1289" t="n">
+        <v>481.8</v>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="inlineStr">
+        <is>
+          <t>2025-09-15 14:56:00</t>
+        </is>
+      </c>
+      <c r="B1290" t="n">
+        <v>494.9999999999999</v>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="inlineStr">
+        <is>
+          <t>2025-09-15 14:57:00</t>
+        </is>
+      </c>
+      <c r="B1291" t="n">
+        <v>508.1999999999999</v>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="inlineStr">
+        <is>
+          <t>2025-09-15 14:58:00</t>
+        </is>
+      </c>
+      <c r="B1292" t="n">
+        <v>521.4</v>
+      </c>
+      <c r="C1292" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="inlineStr">
+        <is>
+          <t>2025-09-15 14:59:00</t>
+        </is>
+      </c>
+      <c r="B1293" t="n">
+        <v>534.6</v>
+      </c>
+      <c r="C1293" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:00:00</t>
+        </is>
+      </c>
+      <c r="B1294" t="n">
+        <v>547.8000000000001</v>
+      </c>
+      <c r="C1294" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:01:00</t>
+        </is>
+      </c>
+      <c r="B1295" t="n">
+        <v>561.0000000000001</v>
+      </c>
+      <c r="C1295" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:02:00</t>
+        </is>
+      </c>
+      <c r="B1296" t="n">
+        <v>574.2000000000002</v>
+      </c>
+      <c r="C1296" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:03:00</t>
+        </is>
+      </c>
+      <c r="B1297" t="n">
+        <v>587.4000000000002</v>
+      </c>
+      <c r="C1297" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:04:00</t>
+        </is>
+      </c>
+      <c r="B1298" t="n">
+        <v>600.6000000000003</v>
+      </c>
+      <c r="C1298" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:05:00</t>
+        </is>
+      </c>
+      <c r="B1299" t="n">
+        <v>613.8000000000003</v>
+      </c>
+      <c r="C1299" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:06:00</t>
+        </is>
+      </c>
+      <c r="B1300" t="n">
+        <v>627.0000000000003</v>
+      </c>
+      <c r="C1300" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:07:00</t>
+        </is>
+      </c>
+      <c r="B1301" t="n">
+        <v>640.2000000000004</v>
+      </c>
+      <c r="C1301" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:08:00</t>
+        </is>
+      </c>
+      <c r="B1302" t="n">
+        <v>653.4000000000004</v>
+      </c>
+      <c r="C1302" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:09:00</t>
+        </is>
+      </c>
+      <c r="B1303" t="n">
+        <v>660</v>
+      </c>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="1" t="n">
+        <v>45915.59694818287</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>660</v>
+      </c>
+      <c r="C1304" t="n">
+        <v>450</v>
+      </c>
+      <c r="D1304" t="inlineStr">
+        <is>
+          <t>14:19</t>
+        </is>
+      </c>
+      <c r="E1304" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 450.0 MW/Giảm tải xuống 450.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="1" t="n">
+        <v>45915.59848384259</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>450</v>
+      </c>
+      <c r="C1305" t="n">
+        <v>420</v>
+      </c>
+      <c r="D1305" t="inlineStr">
+        <is>
+          <t>14:21</t>
+        </is>
+      </c>
+      <c r="E1305" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 420.0 MW/Giảm tải xuống 420.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="1" t="n">
+        <v>45915.59986618056</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1306" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1306" t="inlineStr">
+        <is>
+          <t>14:23</t>
+        </is>
+      </c>
+      <c r="E1306" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:41:00</t>
+        </is>
+      </c>
+      <c r="B1307" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1307" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:42:00</t>
+        </is>
+      </c>
+      <c r="B1308" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1308" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:43:00</t>
+        </is>
+      </c>
+      <c r="B1309" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:44:00</t>
+        </is>
+      </c>
+      <c r="B1310" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1310" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:45:00</t>
+        </is>
+      </c>
+      <c r="B1311" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1311" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:46:00</t>
+        </is>
+      </c>
+      <c r="B1312" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1312" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:47:00</t>
+        </is>
+      </c>
+      <c r="B1313" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1313" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:48:00</t>
+        </is>
+      </c>
+      <c r="B1314" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1314" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:49:00</t>
+        </is>
+      </c>
+      <c r="B1315" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:50:00</t>
+        </is>
+      </c>
+      <c r="B1316" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1316" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:51:00</t>
+        </is>
+      </c>
+      <c r="B1317" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1317" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:52:00</t>
+        </is>
+      </c>
+      <c r="B1318" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1318" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:53:00</t>
+        </is>
+      </c>
+      <c r="B1319" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1319" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:54:00</t>
+        </is>
+      </c>
+      <c r="B1320" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1320" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:55:00</t>
+        </is>
+      </c>
+      <c r="B1321" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:56:00</t>
+        </is>
+      </c>
+      <c r="B1322" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1322" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:57:00</t>
+        </is>
+      </c>
+      <c r="B1323" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1323" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:58:00</t>
+        </is>
+      </c>
+      <c r="B1324" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1324" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="1" t="n">
+        <v>45915.85844674768</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1325" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1325" t="inlineStr">
+        <is>
+          <t>20:36</t>
+        </is>
+      </c>
+      <c r="E1325" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="1" t="n">
+        <v>45915.8586315162</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1326" t="n">
+        <v>550</v>
+      </c>
+      <c r="D1326" t="inlineStr">
+        <is>
+          <t>20:36</t>
+        </is>
+      </c>
+      <c r="E1326" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 550.0 MW/Tăng tải lên 550.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="inlineStr">
+        <is>
+          <t>2025-09-15 21:54:00</t>
+        </is>
+      </c>
+      <c r="B1327" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1327" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="inlineStr">
+        <is>
+          <t>2025-09-15 21:55:00</t>
+        </is>
+      </c>
+      <c r="B1328" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1328" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="inlineStr">
+        <is>
+          <t>2025-09-15 21:56:00</t>
+        </is>
+      </c>
+      <c r="B1329" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1329" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="inlineStr">
+        <is>
+          <t>2025-09-15 21:57:00</t>
+        </is>
+      </c>
+      <c r="B1330" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1330" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="inlineStr">
+        <is>
+          <t>2025-09-15 21:58:00</t>
+        </is>
+      </c>
+      <c r="B1331" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1331" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t>2025-09-15 21:59:00</t>
+        </is>
+      </c>
+      <c r="B1332" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1332" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:00:00</t>
+        </is>
+      </c>
+      <c r="B1333" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1333" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:01:00</t>
+        </is>
+      </c>
+      <c r="B1334" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1334" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:02:00</t>
+        </is>
+      </c>
+      <c r="B1335" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1335" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:03:00</t>
+        </is>
+      </c>
+      <c r="B1336" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1336" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:04:00</t>
+        </is>
+      </c>
+      <c r="B1337" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1337" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:05:00</t>
+        </is>
+      </c>
+      <c r="B1338" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1338" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:06:00</t>
+        </is>
+      </c>
+      <c r="B1339" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1339" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:07:00</t>
+        </is>
+      </c>
+      <c r="B1340" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1340" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:08:00</t>
+        </is>
+      </c>
+      <c r="B1341" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1341" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:09:00</t>
+        </is>
+      </c>
+      <c r="B1342" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1342" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:10:00</t>
+        </is>
+      </c>
+      <c r="B1343" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1343" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:11:00</t>
+        </is>
+      </c>
+      <c r="B1344" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1344" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="1" t="n">
+        <v>45915.87288637731</v>
+      </c>
+      <c r="B1345" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1345" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1345" t="inlineStr">
+        <is>
+          <t>20:56</t>
+        </is>
+      </c>
+      <c r="E1345" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:14:00</t>
+        </is>
+      </c>
+      <c r="B1346" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1346" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:15:00</t>
+        </is>
+      </c>
+      <c r="B1347" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1347" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:16:00</t>
+        </is>
+      </c>
+      <c r="B1348" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1348" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:17:00</t>
+        </is>
+      </c>
+      <c r="B1349" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1349" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:18:00</t>
+        </is>
+      </c>
+      <c r="B1350" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1350" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:19:00</t>
+        </is>
+      </c>
+      <c r="B1351" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1351" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:20:00</t>
+        </is>
+      </c>
+      <c r="B1352" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1352" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:21:00</t>
+        </is>
+      </c>
+      <c r="B1353" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1353" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:22:00</t>
+        </is>
+      </c>
+      <c r="B1354" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1354" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:23:00</t>
+        </is>
+      </c>
+      <c r="B1355" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1355" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:24:00</t>
+        </is>
+      </c>
+      <c r="B1356" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1356" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:25:00</t>
+        </is>
+      </c>
+      <c r="B1357" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1357" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:26:00</t>
+        </is>
+      </c>
+      <c r="B1358" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1358" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:27:00</t>
+        </is>
+      </c>
+      <c r="B1359" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1359" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:28:00</t>
+        </is>
+      </c>
+      <c r="B1360" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1360" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:29:00</t>
+        </is>
+      </c>
+      <c r="B1361" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1361" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:30:00</t>
+        </is>
+      </c>
+      <c r="B1362" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1362" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:31:00</t>
+        </is>
+      </c>
+      <c r="B1363" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1363" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="1" t="n">
+        <v>45915.87367320602</v>
+      </c>
+      <c r="B1364" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1364" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1364" t="inlineStr">
+        <is>
+          <t>20:58</t>
+        </is>
+      </c>
+      <c r="E1364" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:16:00</t>
+        </is>
+      </c>
+      <c r="B1365" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1365" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:17:00</t>
+        </is>
+      </c>
+      <c r="B1366" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1366" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:18:00</t>
+        </is>
+      </c>
+      <c r="B1367" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1367" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:19:00</t>
+        </is>
+      </c>
+      <c r="B1368" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1368" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:20:00</t>
+        </is>
+      </c>
+      <c r="B1369" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1369" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:21:00</t>
+        </is>
+      </c>
+      <c r="B1370" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1370" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:22:00</t>
+        </is>
+      </c>
+      <c r="B1371" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1371" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:23:00</t>
+        </is>
+      </c>
+      <c r="B1372" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1372" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:24:00</t>
+        </is>
+      </c>
+      <c r="B1373" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1373" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:25:00</t>
+        </is>
+      </c>
+      <c r="B1374" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1374" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:26:00</t>
+        </is>
+      </c>
+      <c r="B1375" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1375" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:27:00</t>
+        </is>
+      </c>
+      <c r="B1376" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1376" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:28:00</t>
+        </is>
+      </c>
+      <c r="B1377" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1377" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:29:00</t>
+        </is>
+      </c>
+      <c r="B1378" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1378" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:30:00</t>
+        </is>
+      </c>
+      <c r="B1379" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1379" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:31:00</t>
+        </is>
+      </c>
+      <c r="B1380" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1380" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:32:00</t>
+        </is>
+      </c>
+      <c r="B1381" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1381" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="inlineStr">
+        <is>
+          <t>2025-09-15 22:33:00</t>
+        </is>
+      </c>
+      <c r="B1382" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1382" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="1" t="n">
+        <v>45916.42808299769</v>
+      </c>
+      <c r="B1383" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>600</v>
+      </c>
+      <c r="D1383" t="inlineStr">
+        <is>
+          <t>10:16</t>
+        </is>
+      </c>
+      <c r="E1383" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 600.0 MW/Tăng tải lên 600.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:34:00</t>
+        </is>
+      </c>
+      <c r="B1384" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1384" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:35:00</t>
+        </is>
+      </c>
+      <c r="B1385" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1385" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:36:00</t>
+        </is>
+      </c>
+      <c r="B1386" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1386" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:37:00</t>
+        </is>
+      </c>
+      <c r="B1387" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1387" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:38:00</t>
+        </is>
+      </c>
+      <c r="B1388" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1388" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:39:00</t>
+        </is>
+      </c>
+      <c r="B1389" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1389" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:40:00</t>
+        </is>
+      </c>
+      <c r="B1390" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1390" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:41:00</t>
+        </is>
+      </c>
+      <c r="B1391" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1391" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:42:00</t>
+        </is>
+      </c>
+      <c r="B1392" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1392" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:43:00</t>
+        </is>
+      </c>
+      <c r="B1393" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1393" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:44:00</t>
+        </is>
+      </c>
+      <c r="B1394" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1394" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:45:00</t>
+        </is>
+      </c>
+      <c r="B1395" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1395" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:46:00</t>
+        </is>
+      </c>
+      <c r="B1396" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1396" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:47:00</t>
+        </is>
+      </c>
+      <c r="B1397" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1397" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:48:00</t>
+        </is>
+      </c>
+      <c r="B1398" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1398" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:49:00</t>
+        </is>
+      </c>
+      <c r="B1399" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1399" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:50:00</t>
+        </is>
+      </c>
+      <c r="B1400" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1400" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:51:00</t>
+        </is>
+      </c>
+      <c r="B1401" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1401" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" s="1" t="n">
+        <v>45916.43973465278</v>
+      </c>
+      <c r="B1402" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1402" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1402" t="inlineStr">
+        <is>
+          <t>10:33</t>
+        </is>
+      </c>
+      <c r="E1402" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:51:00</t>
+        </is>
+      </c>
+      <c r="B1403" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1403" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:52:00</t>
+        </is>
+      </c>
+      <c r="B1404" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1404" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:53:00</t>
+        </is>
+      </c>
+      <c r="B1405" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1405" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:54:00</t>
+        </is>
+      </c>
+      <c r="B1406" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1406" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:55:00</t>
+        </is>
+      </c>
+      <c r="B1407" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1407" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:56:00</t>
+        </is>
+      </c>
+      <c r="B1408" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1408" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:57:00</t>
+        </is>
+      </c>
+      <c r="B1409" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1409" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:58:00</t>
+        </is>
+      </c>
+      <c r="B1410" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1410" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:59:00</t>
+        </is>
+      </c>
+      <c r="B1411" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1411" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:00:00</t>
+        </is>
+      </c>
+      <c r="B1412" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1412" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:01:00</t>
+        </is>
+      </c>
+      <c r="B1413" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1413" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:02:00</t>
+        </is>
+      </c>
+      <c r="B1414" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1414" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:03:00</t>
+        </is>
+      </c>
+      <c r="B1415" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1415" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:04:00</t>
+        </is>
+      </c>
+      <c r="B1416" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1416" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:05:00</t>
+        </is>
+      </c>
+      <c r="B1417" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1417" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:06:00</t>
+        </is>
+      </c>
+      <c r="B1418" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1418" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:07:00</t>
+        </is>
+      </c>
+      <c r="B1419" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1419" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:08:00</t>
+        </is>
+      </c>
+      <c r="B1420" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1420" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" s="1" t="n">
+        <v>45916.44036864583</v>
+      </c>
+      <c r="B1421" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1421" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1421" t="inlineStr">
+        <is>
+          <t>10:34</t>
+        </is>
+      </c>
+      <c r="E1421" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:52:00</t>
+        </is>
+      </c>
+      <c r="B1422" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1422" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:53:00</t>
+        </is>
+      </c>
+      <c r="B1423" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1423" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:54:00</t>
+        </is>
+      </c>
+      <c r="B1424" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1424" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:55:00</t>
+        </is>
+      </c>
+      <c r="B1425" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1425" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:56:00</t>
+        </is>
+      </c>
+      <c r="B1426" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1426" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:57:00</t>
+        </is>
+      </c>
+      <c r="B1427" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1427" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:58:00</t>
+        </is>
+      </c>
+      <c r="B1428" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1428" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:59:00</t>
+        </is>
+      </c>
+      <c r="B1429" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1429" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:00:00</t>
+        </is>
+      </c>
+      <c r="B1430" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1430" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:01:00</t>
+        </is>
+      </c>
+      <c r="B1431" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1431" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:02:00</t>
+        </is>
+      </c>
+      <c r="B1432" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1432" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:03:00</t>
+        </is>
+      </c>
+      <c r="B1433" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1433" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:04:00</t>
+        </is>
+      </c>
+      <c r="B1434" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1434" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:05:00</t>
+        </is>
+      </c>
+      <c r="B1435" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1435" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:06:00</t>
+        </is>
+      </c>
+      <c r="B1436" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1436" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:07:00</t>
+        </is>
+      </c>
+      <c r="B1437" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1437" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:08:00</t>
+        </is>
+      </c>
+      <c r="B1438" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1438" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:09:00</t>
+        </is>
+      </c>
+      <c r="B1439" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1439" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" s="1" t="n">
+        <v>45916.44105357639</v>
+      </c>
+      <c r="B1440" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1440" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1440" t="inlineStr">
+        <is>
+          <t>10:35</t>
+        </is>
+      </c>
+      <c r="E1440" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:53:00</t>
+        </is>
+      </c>
+      <c r="B1441" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1441" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:54:00</t>
+        </is>
+      </c>
+      <c r="B1442" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1442" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:55:00</t>
+        </is>
+      </c>
+      <c r="B1443" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1443" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:56:00</t>
+        </is>
+      </c>
+      <c r="B1444" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1444" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:57:00</t>
+        </is>
+      </c>
+      <c r="B1445" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1445" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:58:00</t>
+        </is>
+      </c>
+      <c r="B1446" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1446" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:59:00</t>
+        </is>
+      </c>
+      <c r="B1447" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1447" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:00:00</t>
+        </is>
+      </c>
+      <c r="B1448" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1448" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:01:00</t>
+        </is>
+      </c>
+      <c r="B1449" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1449" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:02:00</t>
+        </is>
+      </c>
+      <c r="B1450" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1450" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:03:00</t>
+        </is>
+      </c>
+      <c r="B1451" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1451" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:04:00</t>
+        </is>
+      </c>
+      <c r="B1452" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1452" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:05:00</t>
+        </is>
+      </c>
+      <c r="B1453" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1453" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:06:00</t>
+        </is>
+      </c>
+      <c r="B1454" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1454" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:07:00</t>
+        </is>
+      </c>
+      <c r="B1455" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1455" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:08:00</t>
+        </is>
+      </c>
+      <c r="B1456" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1456" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:09:00</t>
+        </is>
+      </c>
+      <c r="B1457" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1457" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:10:00</t>
+        </is>
+      </c>
+      <c r="B1458" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1458" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:53:00</t>
+        </is>
+      </c>
+      <c r="B1459" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1459" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:54:00</t>
+        </is>
+      </c>
+      <c r="B1460" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1460" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:55:00</t>
+        </is>
+      </c>
+      <c r="B1461" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1461" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:56:00</t>
+        </is>
+      </c>
+      <c r="B1462" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1462" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:57:00</t>
+        </is>
+      </c>
+      <c r="B1463" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1463" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:58:00</t>
+        </is>
+      </c>
+      <c r="B1464" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1464" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:59:00</t>
+        </is>
+      </c>
+      <c r="B1465" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1465" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:00:00</t>
+        </is>
+      </c>
+      <c r="B1466" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1466" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:01:00</t>
+        </is>
+      </c>
+      <c r="B1467" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1467" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:02:00</t>
+        </is>
+      </c>
+      <c r="B1468" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1468" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:03:00</t>
+        </is>
+      </c>
+      <c r="B1469" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1469" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:04:00</t>
+        </is>
+      </c>
+      <c r="B1470" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1470" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:05:00</t>
+        </is>
+      </c>
+      <c r="B1471" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1471" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:06:00</t>
+        </is>
+      </c>
+      <c r="B1472" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1472" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:07:00</t>
+        </is>
+      </c>
+      <c r="B1473" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1473" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:08:00</t>
+        </is>
+      </c>
+      <c r="B1474" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1474" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:09:00</t>
+        </is>
+      </c>
+      <c r="B1475" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1475" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:10:00</t>
+        </is>
+      </c>
+      <c r="B1476" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1476" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:55:00</t>
+        </is>
+      </c>
+      <c r="B1477" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1477" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:56:00</t>
+        </is>
+      </c>
+      <c r="B1478" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1478" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:57:00</t>
+        </is>
+      </c>
+      <c r="B1479" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1479" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:58:00</t>
+        </is>
+      </c>
+      <c r="B1480" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1480" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:59:00</t>
+        </is>
+      </c>
+      <c r="B1481" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1481" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:00:00</t>
+        </is>
+      </c>
+      <c r="B1482" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1482" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:01:00</t>
+        </is>
+      </c>
+      <c r="B1483" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1483" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:02:00</t>
+        </is>
+      </c>
+      <c r="B1484" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1484" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:03:00</t>
+        </is>
+      </c>
+      <c r="B1485" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1485" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:04:00</t>
+        </is>
+      </c>
+      <c r="B1486" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1486" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:05:00</t>
+        </is>
+      </c>
+      <c r="B1487" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1487" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:06:00</t>
+        </is>
+      </c>
+      <c r="B1488" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1488" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:07:00</t>
+        </is>
+      </c>
+      <c r="B1489" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1489" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:08:00</t>
+        </is>
+      </c>
+      <c r="B1490" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1490" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:09:00</t>
+        </is>
+      </c>
+      <c r="B1491" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1491" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:10:00</t>
+        </is>
+      </c>
+      <c r="B1492" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1492" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:11:00</t>
+        </is>
+      </c>
+      <c r="B1493" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1493" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:12:00</t>
+        </is>
+      </c>
+      <c r="B1494" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1494" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="1" t="n">
+        <v>45916.44182168981</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1495" t="inlineStr">
+        <is>
+          <t>10:36</t>
+        </is>
+      </c>
+      <c r="E1495" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:54:00</t>
+        </is>
+      </c>
+      <c r="B1496" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1496" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:55:00</t>
+        </is>
+      </c>
+      <c r="B1497" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1497" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:56:00</t>
+        </is>
+      </c>
+      <c r="B1498" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1498" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:57:00</t>
+        </is>
+      </c>
+      <c r="B1499" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1499" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:58:00</t>
+        </is>
+      </c>
+      <c r="B1500" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1500" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:59:00</t>
+        </is>
+      </c>
+      <c r="B1501" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1501" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:00:00</t>
+        </is>
+      </c>
+      <c r="B1502" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1502" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:01:00</t>
+        </is>
+      </c>
+      <c r="B1503" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1503" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:02:00</t>
+        </is>
+      </c>
+      <c r="B1504" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1504" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:03:00</t>
+        </is>
+      </c>
+      <c r="B1505" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1505" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:04:00</t>
+        </is>
+      </c>
+      <c r="B1506" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1506" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:05:00</t>
+        </is>
+      </c>
+      <c r="B1507" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1507" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:06:00</t>
+        </is>
+      </c>
+      <c r="B1508" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1508" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:07:00</t>
+        </is>
+      </c>
+      <c r="B1509" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1509" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:08:00</t>
+        </is>
+      </c>
+      <c r="B1510" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1510" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:09:00</t>
+        </is>
+      </c>
+      <c r="B1511" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1511" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:10:00</t>
+        </is>
+      </c>
+      <c r="B1512" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1512" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:11:00</t>
+        </is>
+      </c>
+      <c r="B1513" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1513" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="1" t="n">
+        <v>45916.45054789352</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1514" t="inlineStr">
+        <is>
+          <t>10:48</t>
+        </is>
+      </c>
+      <c r="E1514" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:06:00</t>
+        </is>
+      </c>
+      <c r="B1515" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1515" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:07:00</t>
+        </is>
+      </c>
+      <c r="B1516" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1516" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:08:00</t>
+        </is>
+      </c>
+      <c r="B1517" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1517" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:09:00</t>
+        </is>
+      </c>
+      <c r="B1518" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1518" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:10:00</t>
+        </is>
+      </c>
+      <c r="B1519" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1519" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:11:00</t>
+        </is>
+      </c>
+      <c r="B1520" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1520" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:12:00</t>
+        </is>
+      </c>
+      <c r="B1521" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1521" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:13:00</t>
+        </is>
+      </c>
+      <c r="B1522" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1522" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:14:00</t>
+        </is>
+      </c>
+      <c r="B1523" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1523" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:15:00</t>
+        </is>
+      </c>
+      <c r="B1524" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1524" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:16:00</t>
+        </is>
+      </c>
+      <c r="B1525" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1525" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:17:00</t>
+        </is>
+      </c>
+      <c r="B1526" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1526" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:18:00</t>
+        </is>
+      </c>
+      <c r="B1527" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1527" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:19:00</t>
+        </is>
+      </c>
+      <c r="B1528" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1528" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:20:00</t>
+        </is>
+      </c>
+      <c r="B1529" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1529" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:21:00</t>
+        </is>
+      </c>
+      <c r="B1530" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1530" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:22:00</t>
+        </is>
+      </c>
+      <c r="B1531" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1531" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:23:00</t>
+        </is>
+      </c>
+      <c r="B1532" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1532" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" s="1" t="n">
+        <v>45916.45968400463</v>
+      </c>
+      <c r="B1533" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1533" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1533" t="inlineStr">
+        <is>
+          <t>11:01</t>
+        </is>
+      </c>
+      <c r="E1533" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:19:00</t>
+        </is>
+      </c>
+      <c r="B1534" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1534" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:20:00</t>
+        </is>
+      </c>
+      <c r="B1535" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1535" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:21:00</t>
+        </is>
+      </c>
+      <c r="B1536" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1536" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:22:00</t>
+        </is>
+      </c>
+      <c r="B1537" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1537" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:23:00</t>
+        </is>
+      </c>
+      <c r="B1538" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1538" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:24:00</t>
+        </is>
+      </c>
+      <c r="B1539" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1539" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:25:00</t>
+        </is>
+      </c>
+      <c r="B1540" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1540" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:26:00</t>
+        </is>
+      </c>
+      <c r="B1541" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1541" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:27:00</t>
+        </is>
+      </c>
+      <c r="B1542" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1542" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:28:00</t>
+        </is>
+      </c>
+      <c r="B1543" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1543" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:29:00</t>
+        </is>
+      </c>
+      <c r="B1544" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1544" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:30:00</t>
+        </is>
+      </c>
+      <c r="B1545" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1545" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:31:00</t>
+        </is>
+      </c>
+      <c r="B1546" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1546" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:32:00</t>
+        </is>
+      </c>
+      <c r="B1547" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1547" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:33:00</t>
+        </is>
+      </c>
+      <c r="B1548" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1548" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:34:00</t>
+        </is>
+      </c>
+      <c r="B1549" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1549" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:35:00</t>
+        </is>
+      </c>
+      <c r="B1550" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1550" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:36:00</t>
+        </is>
+      </c>
+      <c r="B1551" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1551" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" s="1" t="n">
+        <v>45916.46725318287</v>
+      </c>
+      <c r="B1552" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1552" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1552" t="inlineStr">
+        <is>
+          <t>11:12</t>
+        </is>
+      </c>
+      <c r="E1552" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:30:00</t>
+        </is>
+      </c>
+      <c r="B1553" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1553" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:31:00</t>
+        </is>
+      </c>
+      <c r="B1554" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1554" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:32:00</t>
+        </is>
+      </c>
+      <c r="B1555" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1555" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:33:00</t>
+        </is>
+      </c>
+      <c r="B1556" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1556" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:34:00</t>
+        </is>
+      </c>
+      <c r="B1557" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1557" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:35:00</t>
+        </is>
+      </c>
+      <c r="B1558" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1558" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:36:00</t>
+        </is>
+      </c>
+      <c r="B1559" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1559" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:37:00</t>
+        </is>
+      </c>
+      <c r="B1560" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1560" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:38:00</t>
+        </is>
+      </c>
+      <c r="B1561" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1561" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:39:00</t>
+        </is>
+      </c>
+      <c r="B1562" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1562" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:40:00</t>
+        </is>
+      </c>
+      <c r="B1563" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1563" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:41:00</t>
+        </is>
+      </c>
+      <c r="B1564" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1564" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:42:00</t>
+        </is>
+      </c>
+      <c r="B1565" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1565" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:43:00</t>
+        </is>
+      </c>
+      <c r="B1566" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1566" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:44:00</t>
+        </is>
+      </c>
+      <c r="B1567" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1567" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:45:00</t>
+        </is>
+      </c>
+      <c r="B1568" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1568" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:46:00</t>
+        </is>
+      </c>
+      <c r="B1569" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1569" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:47:00</t>
+        </is>
+      </c>
+      <c r="B1570" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1570" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" s="1" t="n">
+        <v>45916.46812383101</v>
+      </c>
+      <c r="B1571" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1571" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1571" t="inlineStr">
+        <is>
+          <t>11:14</t>
+        </is>
+      </c>
+      <c r="E1571" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:32:00</t>
+        </is>
+      </c>
+      <c r="B1572" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1572" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:33:00</t>
+        </is>
+      </c>
+      <c r="B1573" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1573" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:34:00</t>
+        </is>
+      </c>
+      <c r="B1574" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1574" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:35:00</t>
+        </is>
+      </c>
+      <c r="B1575" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1575" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:36:00</t>
+        </is>
+      </c>
+      <c r="B1576" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1576" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:37:00</t>
+        </is>
+      </c>
+      <c r="B1577" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1577" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:38:00</t>
+        </is>
+      </c>
+      <c r="B1578" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1578" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:39:00</t>
+        </is>
+      </c>
+      <c r="B1579" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1579" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:40:00</t>
+        </is>
+      </c>
+      <c r="B1580" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1580" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:41:00</t>
+        </is>
+      </c>
+      <c r="B1581" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1581" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:42:00</t>
+        </is>
+      </c>
+      <c r="B1582" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1582" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:43:00</t>
+        </is>
+      </c>
+      <c r="B1583" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1583" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:44:00</t>
+        </is>
+      </c>
+      <c r="B1584" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1584" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:45:00</t>
+        </is>
+      </c>
+      <c r="B1585" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1585" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:46:00</t>
+        </is>
+      </c>
+      <c r="B1586" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1586" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:47:00</t>
+        </is>
+      </c>
+      <c r="B1587" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1587" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:48:00</t>
+        </is>
+      </c>
+      <c r="B1588" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1588" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:49:00</t>
+        </is>
+      </c>
+      <c r="B1589" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1589" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="1" t="n">
+        <v>45916.48053333334</v>
+      </c>
+      <c r="B1590" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1590" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1590" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+      <c r="E1590" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:49:00</t>
+        </is>
+      </c>
+      <c r="B1591" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1591" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:50:00</t>
+        </is>
+      </c>
+      <c r="B1592" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1592" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:51:00</t>
+        </is>
+      </c>
+      <c r="B1593" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1593" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:52:00</t>
+        </is>
+      </c>
+      <c r="B1594" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1594" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:53:00</t>
+        </is>
+      </c>
+      <c r="B1595" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1595" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:54:00</t>
+        </is>
+      </c>
+      <c r="B1596" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1596" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:55:00</t>
+        </is>
+      </c>
+      <c r="B1597" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1597" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:56:00</t>
+        </is>
+      </c>
+      <c r="B1598" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1598" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:57:00</t>
+        </is>
+      </c>
+      <c r="B1599" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1599" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:58:00</t>
+        </is>
+      </c>
+      <c r="B1600" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1600" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="inlineStr">
+        <is>
+          <t>2025-09-16 12:59:00</t>
+        </is>
+      </c>
+      <c r="B1601" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1601" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:00:00</t>
+        </is>
+      </c>
+      <c r="B1602" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1602" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:01:00</t>
+        </is>
+      </c>
+      <c r="B1603" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1603" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:02:00</t>
+        </is>
+      </c>
+      <c r="B1604" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1604" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:03:00</t>
+        </is>
+      </c>
+      <c r="B1605" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1605" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:04:00</t>
+        </is>
+      </c>
+      <c r="B1606" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1606" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:05:00</t>
+        </is>
+      </c>
+      <c r="B1607" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1607" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:06:00</t>
+        </is>
+      </c>
+      <c r="B1608" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1608" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" s="1" t="n">
+        <v>45916.48967752315</v>
+      </c>
+      <c r="B1609" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1609" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1609" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="E1609" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:03:00</t>
+        </is>
+      </c>
+      <c r="B1610" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1610" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:04:00</t>
+        </is>
+      </c>
+      <c r="B1611" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1611" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:05:00</t>
+        </is>
+      </c>
+      <c r="B1612" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1612" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:06:00</t>
+        </is>
+      </c>
+      <c r="B1613" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1613" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:07:00</t>
+        </is>
+      </c>
+      <c r="B1614" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1614" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:08:00</t>
+        </is>
+      </c>
+      <c r="B1615" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1615" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:09:00</t>
+        </is>
+      </c>
+      <c r="B1616" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1616" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:10:00</t>
+        </is>
+      </c>
+      <c r="B1617" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1617" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:11:00</t>
+        </is>
+      </c>
+      <c r="B1618" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1618" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:12:00</t>
+        </is>
+      </c>
+      <c r="B1619" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1619" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:13:00</t>
+        </is>
+      </c>
+      <c r="B1620" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1620" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:14:00</t>
+        </is>
+      </c>
+      <c r="B1621" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1621" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:15:00</t>
+        </is>
+      </c>
+      <c r="B1622" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1622" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:16:00</t>
+        </is>
+      </c>
+      <c r="B1623" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1623" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:17:00</t>
+        </is>
+      </c>
+      <c r="B1624" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1624" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:18:00</t>
+        </is>
+      </c>
+      <c r="B1625" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1625" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:19:00</t>
+        </is>
+      </c>
+      <c r="B1626" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1626" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:20:00</t>
+        </is>
+      </c>
+      <c r="B1627" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1627" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="1" t="n">
+        <v>45916.61996885417</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1628" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1628" t="inlineStr">
+        <is>
+          <t>14:52</t>
+        </is>
+      </c>
+      <c r="E1628" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:10:00</t>
+        </is>
+      </c>
+      <c r="B1629" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1629" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:11:00</t>
+        </is>
+      </c>
+      <c r="B1630" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1630" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:12:00</t>
+        </is>
+      </c>
+      <c r="B1631" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1631" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:13:00</t>
+        </is>
+      </c>
+      <c r="B1632" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1632" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:14:00</t>
+        </is>
+      </c>
+      <c r="B1633" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1633" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:15:00</t>
+        </is>
+      </c>
+      <c r="B1634" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1634" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:16:00</t>
+        </is>
+      </c>
+      <c r="B1635" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1635" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:17:00</t>
+        </is>
+      </c>
+      <c r="B1636" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1636" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:18:00</t>
+        </is>
+      </c>
+      <c r="B1637" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1637" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:19:00</t>
+        </is>
+      </c>
+      <c r="B1638" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1638" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:20:00</t>
+        </is>
+      </c>
+      <c r="B1639" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1639" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:21:00</t>
+        </is>
+      </c>
+      <c r="B1640" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1640" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:22:00</t>
+        </is>
+      </c>
+      <c r="B1641" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1641" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:23:00</t>
+        </is>
+      </c>
+      <c r="B1642" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1642" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:24:00</t>
+        </is>
+      </c>
+      <c r="B1643" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1643" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:25:00</t>
+        </is>
+      </c>
+      <c r="B1644" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1644" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:26:00</t>
+        </is>
+      </c>
+      <c r="B1645" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1645" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:27:00</t>
+        </is>
+      </c>
+      <c r="B1646" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1646" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="1" t="n">
+        <v>45916.62436704861</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1647" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1647" t="inlineStr">
+        <is>
+          <t>14:59</t>
+        </is>
+      </c>
+      <c r="E1647" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:17:00</t>
+        </is>
+      </c>
+      <c r="B1648" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1648" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:18:00</t>
+        </is>
+      </c>
+      <c r="B1649" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1649" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:19:00</t>
+        </is>
+      </c>
+      <c r="B1650" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1650" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:20:00</t>
+        </is>
+      </c>
+      <c r="B1651" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1651" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:21:00</t>
+        </is>
+      </c>
+      <c r="B1652" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1652" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:22:00</t>
+        </is>
+      </c>
+      <c r="B1653" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1653" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:23:00</t>
+        </is>
+      </c>
+      <c r="B1654" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1654" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:24:00</t>
+        </is>
+      </c>
+      <c r="B1655" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1655" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:25:00</t>
+        </is>
+      </c>
+      <c r="B1656" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1656" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:26:00</t>
+        </is>
+      </c>
+      <c r="B1657" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1657" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:27:00</t>
+        </is>
+      </c>
+      <c r="B1658" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1658" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:28:00</t>
+        </is>
+      </c>
+      <c r="B1659" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1659" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:29:00</t>
+        </is>
+      </c>
+      <c r="B1660" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1660" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:30:00</t>
+        </is>
+      </c>
+      <c r="B1661" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1661" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:31:00</t>
+        </is>
+      </c>
+      <c r="B1662" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1662" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:32:00</t>
+        </is>
+      </c>
+      <c r="B1663" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1663" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:33:00</t>
+        </is>
+      </c>
+      <c r="B1664" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1664" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:34:00</t>
+        </is>
+      </c>
+      <c r="B1665" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1665" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="1" t="n">
+        <v>45916.62480136574</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1666" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1666" t="inlineStr">
+        <is>
+          <t>14:59</t>
+        </is>
+      </c>
+      <c r="E1666" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:17:00</t>
+        </is>
+      </c>
+      <c r="B1667" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1667" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:18:00</t>
+        </is>
+      </c>
+      <c r="B1668" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1668" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:19:00</t>
+        </is>
+      </c>
+      <c r="B1669" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1669" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:20:00</t>
+        </is>
+      </c>
+      <c r="B1670" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1670" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:21:00</t>
+        </is>
+      </c>
+      <c r="B1671" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1671" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:22:00</t>
+        </is>
+      </c>
+      <c r="B1672" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1672" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:23:00</t>
+        </is>
+      </c>
+      <c r="B1673" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1673" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:24:00</t>
+        </is>
+      </c>
+      <c r="B1674" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1674" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:25:00</t>
+        </is>
+      </c>
+      <c r="B1675" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1675" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:26:00</t>
+        </is>
+      </c>
+      <c r="B1676" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1676" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:27:00</t>
+        </is>
+      </c>
+      <c r="B1677" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1677" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:28:00</t>
+        </is>
+      </c>
+      <c r="B1678" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1678" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:29:00</t>
+        </is>
+      </c>
+      <c r="B1679" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1679" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:30:00</t>
+        </is>
+      </c>
+      <c r="B1680" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1680" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:31:00</t>
+        </is>
+      </c>
+      <c r="B1681" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1681" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:32:00</t>
+        </is>
+      </c>
+      <c r="B1682" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1682" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:33:00</t>
+        </is>
+      </c>
+      <c r="B1683" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1683" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:34:00</t>
+        </is>
+      </c>
+      <c r="B1684" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1684" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="1" t="n">
+        <v>45916.62871303241</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1685" t="inlineStr">
+        <is>
+          <t>15:05</t>
+        </is>
+      </c>
+      <c r="E1685" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:23:00</t>
+        </is>
+      </c>
+      <c r="B1686" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1686" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:24:00</t>
+        </is>
+      </c>
+      <c r="B1687" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1687" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:25:00</t>
+        </is>
+      </c>
+      <c r="B1688" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1688" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:26:00</t>
+        </is>
+      </c>
+      <c r="B1689" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1689" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:27:00</t>
+        </is>
+      </c>
+      <c r="B1690" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1690" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:28:00</t>
+        </is>
+      </c>
+      <c r="B1691" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1691" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:29:00</t>
+        </is>
+      </c>
+      <c r="B1692" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1692" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:30:00</t>
+        </is>
+      </c>
+      <c r="B1693" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1693" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:31:00</t>
+        </is>
+      </c>
+      <c r="B1694" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1694" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:32:00</t>
+        </is>
+      </c>
+      <c r="B1695" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1695" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:33:00</t>
+        </is>
+      </c>
+      <c r="B1696" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1696" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:34:00</t>
+        </is>
+      </c>
+      <c r="B1697" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1697" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:35:00</t>
+        </is>
+      </c>
+      <c r="B1698" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1698" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:36:00</t>
+        </is>
+      </c>
+      <c r="B1699" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1699" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:37:00</t>
+        </is>
+      </c>
+      <c r="B1700" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1700" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:38:00</t>
+        </is>
+      </c>
+      <c r="B1701" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1701" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:39:00</t>
+        </is>
+      </c>
+      <c r="B1702" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1702" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:40:00</t>
+        </is>
+      </c>
+      <c r="B1703" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1703" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="1" t="n">
+        <v>45916.63013371528</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1704" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="E1704" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="1" t="n">
+        <v>45916.63595864583</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1705" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+      <c r="E1705" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:33:00</t>
+        </is>
+      </c>
+      <c r="B1706" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1706" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:34:00</t>
+        </is>
+      </c>
+      <c r="B1707" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1707" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:35:00</t>
+        </is>
+      </c>
+      <c r="B1708" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1708" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:36:00</t>
+        </is>
+      </c>
+      <c r="B1709" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1709" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:37:00</t>
+        </is>
+      </c>
+      <c r="B1710" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1710" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:38:00</t>
+        </is>
+      </c>
+      <c r="B1711" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1711" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:39:00</t>
+        </is>
+      </c>
+      <c r="B1712" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1712" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:40:00</t>
+        </is>
+      </c>
+      <c r="B1713" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1713" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:41:00</t>
+        </is>
+      </c>
+      <c r="B1714" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1714" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:42:00</t>
+        </is>
+      </c>
+      <c r="B1715" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1715" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:43:00</t>
+        </is>
+      </c>
+      <c r="B1716" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1716" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:44:00</t>
+        </is>
+      </c>
+      <c r="B1717" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1717" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:45:00</t>
+        </is>
+      </c>
+      <c r="B1718" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1718" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:46:00</t>
+        </is>
+      </c>
+      <c r="B1719" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1719" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:47:00</t>
+        </is>
+      </c>
+      <c r="B1720" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1720" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:48:00</t>
+        </is>
+      </c>
+      <c r="B1721" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1721" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:49:00</t>
+        </is>
+      </c>
+      <c r="B1722" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1722" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:50:00</t>
+        </is>
+      </c>
+      <c r="B1723" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1723" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="1" t="n">
+        <v>45916.6471688868</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1724" t="inlineStr">
+        <is>
+          <t>15:31</t>
+        </is>
+      </c>
+      <c r="E1724" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:49:00</t>
+        </is>
+      </c>
+      <c r="B1725" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1725" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:50:00</t>
+        </is>
+      </c>
+      <c r="B1726" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1726" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:51:00</t>
+        </is>
+      </c>
+      <c r="B1727" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1727" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:52:00</t>
+        </is>
+      </c>
+      <c r="B1728" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1728" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:53:00</t>
+        </is>
+      </c>
+      <c r="B1729" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1729" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:54:00</t>
+        </is>
+      </c>
+      <c r="B1730" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1730" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:55:00</t>
+        </is>
+      </c>
+      <c r="B1731" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1731" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:56:00</t>
+        </is>
+      </c>
+      <c r="B1732" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1732" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:57:00</t>
+        </is>
+      </c>
+      <c r="B1733" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1733" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:58:00</t>
+        </is>
+      </c>
+      <c r="B1734" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1734" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="inlineStr">
+        <is>
+          <t>2025-09-16 16:59:00</t>
+        </is>
+      </c>
+      <c r="B1735" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1735" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="inlineStr">
+        <is>
+          <t>2025-09-16 17:00:00</t>
+        </is>
+      </c>
+      <c r="B1736" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1736" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="inlineStr">
+        <is>
+          <t>2025-09-16 17:01:00</t>
+        </is>
+      </c>
+      <c r="B1737" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1737" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="inlineStr">
+        <is>
+          <t>2025-09-16 17:02:00</t>
+        </is>
+      </c>
+      <c r="B1738" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1738" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="inlineStr">
+        <is>
+          <t>2025-09-16 17:03:00</t>
+        </is>
+      </c>
+      <c r="B1739" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1739" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="inlineStr">
+        <is>
+          <t>2025-09-16 17:04:00</t>
+        </is>
+      </c>
+      <c r="B1740" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1740" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="inlineStr">
+        <is>
+          <t>2025-09-16 17:05:00</t>
+        </is>
+      </c>
+      <c r="B1741" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1741" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="inlineStr">
+        <is>
+          <t>2025-09-16 17:06:00</t>
+        </is>
+      </c>
+      <c r="B1742" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1742" t="inlineStr">
         <is>
           <t>ramp</t>
         </is>

--- a/abc.xlsx
+++ b/abc.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E1742"/>
+  <dimension ref="A2:E1774"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26790,7 +26790,7 @@
     </row>
     <row r="1724">
       <c r="A1724" s="1" t="n">
-        <v>45916.6471688868</v>
+        <v>45916.64716888889</v>
       </c>
       <c r="B1724" t="n">
         <v>264</v>
@@ -27076,6 +27076,570 @@
       <c r="C1742" t="inlineStr">
         <is>
           <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="1" t="n">
+        <v>45916.64912111111</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>660</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>264</v>
+      </c>
+      <c r="D1743" t="inlineStr">
+        <is>
+          <t>15:34</t>
+        </is>
+      </c>
+      <c r="E1743" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="1" t="n">
+        <v>45916.7017872338</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1744" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="E1744" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="1" t="n">
+        <v>45916.70327479167</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>660</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>264</v>
+      </c>
+      <c r="D1745" t="inlineStr">
+        <is>
+          <t>16:52</t>
+        </is>
+      </c>
+      <c r="E1745" t="inlineStr">
+        <is>
+          <t>Decrease Unit load to 264.0 MW/Giảm tải xuống 264.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="1" t="n">
+        <v>45916.70355048611</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1746" t="inlineStr">
+        <is>
+          <t>16:53</t>
+        </is>
+      </c>
+      <c r="E1746" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="inlineStr">
+        <is>
+          <t>2025-09-16 18:11:00</t>
+        </is>
+      </c>
+      <c r="B1747" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1747" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="inlineStr">
+        <is>
+          <t>2025-09-16 18:12:00</t>
+        </is>
+      </c>
+      <c r="B1748" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="C1748" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="inlineStr">
+        <is>
+          <t>2025-09-16 18:13:00</t>
+        </is>
+      </c>
+      <c r="B1749" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="C1749" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="inlineStr">
+        <is>
+          <t>2025-09-16 18:14:00</t>
+        </is>
+      </c>
+      <c r="B1750" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C1750" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="inlineStr">
+        <is>
+          <t>2025-09-16 18:15:00</t>
+        </is>
+      </c>
+      <c r="B1751" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="C1751" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="inlineStr">
+        <is>
+          <t>2025-09-16 18:16:00</t>
+        </is>
+      </c>
+      <c r="B1752" t="n">
+        <v>363.0000000000001</v>
+      </c>
+      <c r="C1752" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="inlineStr">
+        <is>
+          <t>2025-09-16 18:17:00</t>
+        </is>
+      </c>
+      <c r="B1753" t="n">
+        <v>349.8000000000001</v>
+      </c>
+      <c r="C1753" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="inlineStr">
+        <is>
+          <t>2025-09-16 18:18:00</t>
+        </is>
+      </c>
+      <c r="B1754" t="n">
+        <v>336.6000000000001</v>
+      </c>
+      <c r="C1754" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="inlineStr">
+        <is>
+          <t>2025-09-16 18:19:00</t>
+        </is>
+      </c>
+      <c r="B1755" t="n">
+        <v>323.4000000000001</v>
+      </c>
+      <c r="C1755" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="inlineStr">
+        <is>
+          <t>2025-09-16 18:20:00</t>
+        </is>
+      </c>
+      <c r="B1756" t="n">
+        <v>316.8000000000001</v>
+      </c>
+      <c r="C1756" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="inlineStr">
+        <is>
+          <t>2025-09-16 18:21:00</t>
+        </is>
+      </c>
+      <c r="B1757" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="C1757" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="inlineStr">
+        <is>
+          <t>2025-09-16 18:22:00</t>
+        </is>
+      </c>
+      <c r="B1758" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C1758" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="inlineStr">
+        <is>
+          <t>2025-09-16 18:23:00</t>
+        </is>
+      </c>
+      <c r="B1759" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1759" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="inlineStr">
+        <is>
+          <t>2025-09-16 18:24:00</t>
+        </is>
+      </c>
+      <c r="B1760" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C1760" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="inlineStr">
+        <is>
+          <t>2025-09-16 18:25:00</t>
+        </is>
+      </c>
+      <c r="B1761" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="C1761" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="inlineStr">
+        <is>
+          <t>2025-09-16 18:26:00</t>
+        </is>
+      </c>
+      <c r="B1762" t="n">
+        <v>277.1999999999999</v>
+      </c>
+      <c r="C1762" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="inlineStr">
+        <is>
+          <t>2025-09-16 18:27:00</t>
+        </is>
+      </c>
+      <c r="B1763" t="n">
+        <v>270.5999999999999</v>
+      </c>
+      <c r="C1763" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="inlineStr">
+        <is>
+          <t>2025-09-16 18:28:00</t>
+        </is>
+      </c>
+      <c r="B1764" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1764" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="1" t="n">
+        <v>45916.70646266203</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1765" t="inlineStr">
+        <is>
+          <t>16:57</t>
+        </is>
+      </c>
+      <c r="E1765" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="1" t="n">
+        <v>45916.70961600694</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1766" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="E1766" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="1" t="n">
+        <v>45916.7409215162</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1767" t="inlineStr">
+        <is>
+          <t>17:46</t>
+        </is>
+      </c>
+      <c r="E1767" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="1" t="n">
+        <v>45916.74387775463</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1768" t="inlineStr">
+        <is>
+          <t>17:51</t>
+        </is>
+      </c>
+      <c r="E1768" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="1" t="n">
+        <v>45916.7438884375</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1769" t="inlineStr">
+        <is>
+          <t>17:51</t>
+        </is>
+      </c>
+      <c r="E1769" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="1" t="n">
+        <v>45916.74389157407</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1770" t="inlineStr">
+        <is>
+          <t>17:51</t>
+        </is>
+      </c>
+      <c r="E1770" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="1" t="n">
+        <v>45916.74389478009</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1771" t="inlineStr">
+        <is>
+          <t>17:51</t>
+        </is>
+      </c>
+      <c r="E1771" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="1" t="n">
+        <v>45916.74389778935</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1772" t="inlineStr">
+        <is>
+          <t>17:51</t>
+        </is>
+      </c>
+      <c r="E1772" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="1" t="n">
+        <v>45916.74390060185</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1773" t="inlineStr">
+        <is>
+          <t>17:51</t>
+        </is>
+      </c>
+      <c r="E1773" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="1" t="n">
+        <v>45916.74434719766</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1774" t="inlineStr">
+        <is>
+          <t>17:51</t>
+        </is>
+      </c>
+      <c r="E1774" t="inlineStr">
+        <is>
+          <t>Increase Unit load to 660.0 MW/Tăng tải lên 660.0 MW</t>
         </is>
       </c>
     </row>
